--- a/words_CZ/8.xlsx
+++ b/words_CZ/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{765021E2-D6E3-428A-AA43-7A99D33C424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F1D190-9B36-40BD-BC5C-E9F5129FF9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="901">
-  <si>
-    <t>účet</t>
-  </si>
-  <si>
-    <t>mistake, error</t>
-  </si>
-  <si>
-    <t>automat</t>
-  </si>
-  <si>
-    <t>autoškola</t>
-  </si>
-  <si>
-    <t>balík</t>
-  </si>
-  <si>
-    <t>bankovní</t>
-  </si>
-  <si>
-    <t>certifikát</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="899">
   <si>
     <t>Co se děje?</t>
   </si>
@@ -54,411 +33,84 @@
     <t>Co se stalo?</t>
   </si>
   <si>
-    <t>další</t>
-  </si>
-  <si>
-    <t>datum narození</t>
-  </si>
-  <si>
-    <t>diplom</t>
-  </si>
-  <si>
-    <t>doklad</t>
-  </si>
-  <si>
     <t>doporučeně</t>
   </si>
   <si>
-    <t>doporučený</t>
-  </si>
-  <si>
-    <t>dovolená</t>
-  </si>
-  <si>
-    <t>ekonomický</t>
-  </si>
-  <si>
-    <t>expres</t>
-  </si>
-  <si>
-    <t>fakulta</t>
-  </si>
-  <si>
-    <t>filozofický</t>
-  </si>
-  <si>
     <t>jako</t>
   </si>
   <si>
     <t>jinak</t>
   </si>
   <si>
-    <t>kabelka</t>
-  </si>
-  <si>
-    <t>katedra</t>
-  </si>
-  <si>
-    <t>kolo</t>
-  </si>
-  <si>
-    <t>kontaktní adresa</t>
-  </si>
-  <si>
     <t>letecky</t>
   </si>
   <si>
-    <t>maturita</t>
-  </si>
-  <si>
-    <t>medicína</t>
-  </si>
-  <si>
-    <t>minulý</t>
-  </si>
-  <si>
-    <t>místo narození</t>
-  </si>
-  <si>
     <t>narodit se</t>
   </si>
   <si>
-    <t>narození</t>
-  </si>
-  <si>
     <t>nedávno</t>
   </si>
   <si>
-    <t>nehoda</t>
-  </si>
-  <si>
-    <t>neplatný</t>
-  </si>
-  <si>
-    <t>nezaměstnaný</t>
-  </si>
-  <si>
-    <t>obálka</t>
-  </si>
-  <si>
-    <t>občanka</t>
-  </si>
-  <si>
-    <t>obor</t>
-  </si>
-  <si>
     <t>obyčejně</t>
   </si>
   <si>
-    <t>odborný</t>
-  </si>
-  <si>
-    <t>oddělení</t>
-  </si>
-  <si>
-    <t>omyl</t>
-  </si>
-  <si>
-    <t>otevírací doba</t>
-  </si>
-  <si>
-    <t>papír</t>
-  </si>
-  <si>
-    <t>pas</t>
-  </si>
-  <si>
-    <t>pedagogický</t>
-  </si>
-  <si>
-    <t>peněženka</t>
-  </si>
-  <si>
-    <t>plat</t>
-  </si>
-  <si>
-    <t>platný</t>
-  </si>
-  <si>
-    <t>pobyt</t>
-  </si>
-  <si>
-    <t>podobný</t>
-  </si>
-  <si>
-    <t>podpis</t>
-  </si>
-  <si>
-    <t>pojištění</t>
-  </si>
-  <si>
-    <t>pojištěný</t>
-  </si>
-  <si>
-    <t>pokuta</t>
-  </si>
-  <si>
-    <t>policejní stanice</t>
-  </si>
-  <si>
-    <t>poslední</t>
-  </si>
-  <si>
-    <t>poštovní schránka</t>
-  </si>
-  <si>
     <t>později</t>
   </si>
   <si>
-    <t>projekt</t>
-  </si>
-  <si>
-    <t>průkaz</t>
-  </si>
-  <si>
     <t>předtím</t>
   </si>
   <si>
-    <t>přestávka</t>
-  </si>
-  <si>
-    <t>příběh</t>
-  </si>
-  <si>
-    <t>přihláška</t>
-  </si>
-  <si>
-    <t>přízemí</t>
-  </si>
-  <si>
-    <t>PSČ</t>
-  </si>
-  <si>
-    <t>rádio</t>
-  </si>
-  <si>
-    <t>rodné číslo</t>
-  </si>
-  <si>
-    <t>rodné příjmení</t>
-  </si>
-  <si>
-    <t>rok</t>
-  </si>
-  <si>
     <t>rychle</t>
   </si>
   <si>
     <t>sem</t>
   </si>
   <si>
-    <t>semestr</t>
-  </si>
-  <si>
-    <t>slovo</t>
-  </si>
-  <si>
-    <t>směnárna</t>
-  </si>
-  <si>
-    <t>smlouva</t>
-  </si>
-  <si>
-    <t>socha</t>
-  </si>
-  <si>
-    <t>SŠ</t>
-  </si>
-  <si>
     <t>stejně</t>
   </si>
   <si>
-    <t>stejný</t>
-  </si>
-  <si>
-    <t>stránka</t>
-  </si>
-  <si>
-    <t>střední škola</t>
-  </si>
-  <si>
-    <t>středoškolský</t>
-  </si>
-  <si>
-    <t>studentský</t>
-  </si>
-  <si>
-    <t>studijní</t>
-  </si>
-  <si>
-    <t>studijní oddělení</t>
-  </si>
-  <si>
-    <t>takový</t>
-  </si>
-  <si>
-    <t>technický</t>
-  </si>
-  <si>
-    <t>technika</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>titul</t>
-  </si>
-  <si>
-    <t>trvalé bydliště</t>
-  </si>
-  <si>
     <t>včera</t>
   </si>
   <si>
     <t>velmi</t>
   </si>
   <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>vysoká škola</t>
-  </si>
-  <si>
-    <t>vysokoškolský</t>
-  </si>
-  <si>
-    <t>vzdělání</t>
-  </si>
-  <si>
-    <t>vzkaz</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>www stránka</t>
-  </si>
-  <si>
-    <t>zahraničí</t>
-  </si>
-  <si>
-    <t>zahraniční</t>
-  </si>
-  <si>
-    <t>základní škola</t>
-  </si>
-  <si>
-    <t>základní vzdělání</t>
-  </si>
-  <si>
-    <t>zaměstnání</t>
-  </si>
-  <si>
     <t>zase</t>
   </si>
   <si>
-    <t>známka</t>
-  </si>
-  <si>
     <t>znova</t>
   </si>
   <si>
-    <t>ZŠ</t>
-  </si>
-  <si>
-    <t>absolvent</t>
-  </si>
-  <si>
-    <t>випускник, абсольвент</t>
-  </si>
-  <si>
-    <t>выпускник, абсольвент</t>
-  </si>
-  <si>
     <t>graduate (male)</t>
   </si>
   <si>
-    <t>absolventka</t>
-  </si>
-  <si>
-    <t>випускниця, абсольвентка</t>
-  </si>
-  <si>
-    <t>выпускница, абсольвентка</t>
-  </si>
-  <si>
     <t>graduate (female)</t>
   </si>
   <si>
     <t>absolvovat</t>
   </si>
   <si>
-    <t>закінчити, пройти (навчання) (недок./док.)</t>
-  </si>
-  <si>
-    <t>окончить, пройти (обучение) (недок./док.)</t>
-  </si>
-  <si>
-    <t>to graduate, to complete (studies) (impf./pf.)</t>
-  </si>
-  <si>
-    <t>автомат, торговий автомат</t>
-  </si>
-  <si>
-    <t>автомат, торговый автомат</t>
-  </si>
-  <si>
-    <t>automat, vending machine</t>
-  </si>
-  <si>
     <t>автошкола</t>
   </si>
   <si>
     <t>driving school</t>
   </si>
   <si>
-    <t>посилка, пакунок, пакет</t>
-  </si>
-  <si>
     <t>посылка, пакет</t>
   </si>
   <si>
-    <t>package, parcel</t>
-  </si>
-  <si>
-    <t>банківський</t>
-  </si>
-  <si>
-    <t>банковский</t>
-  </si>
-  <si>
-    <t>bank (adj.), banking</t>
-  </si>
-  <si>
     <t>постійне місце проживання, прописка</t>
   </si>
   <si>
     <t>постоянное место жительства, прописка</t>
   </si>
   <si>
-    <t>permanent residence</t>
-  </si>
-  <si>
-    <t>сертифікат, посвідчення</t>
-  </si>
-  <si>
-    <t>сертификат, удостоверение</t>
-  </si>
-  <si>
     <t>certificate</t>
   </si>
   <si>
-    <t>Що відбувається?, Що діється?</t>
-  </si>
-  <si>
-    <t>Что происходит?, Что творится?</t>
-  </si>
-  <si>
     <t>What's happening?, What's going on?</t>
   </si>
   <si>
@@ -471,15 +123,6 @@
     <t>What happened?</t>
   </si>
   <si>
-    <t>інший, наступний, подальший</t>
-  </si>
-  <si>
-    <t>другой, следующий, дальнейший</t>
-  </si>
-  <si>
-    <t>other, next, further</t>
-  </si>
-  <si>
     <t>дата народження</t>
   </si>
   <si>
@@ -492,135 +135,30 @@
     <t>диплом</t>
   </si>
   <si>
-    <t>diploma</t>
-  </si>
-  <si>
-    <t>документ, посвідчення, доказ</t>
-  </si>
-  <si>
-    <t>документ, удостоверение, доказательство</t>
-  </si>
-  <si>
-    <t>document, proof, evidence</t>
-  </si>
-  <si>
-    <t>dokončit</t>
-  </si>
-  <si>
-    <t>закінчити, завершити (док.)</t>
-  </si>
-  <si>
-    <t>закончить, завершить (док.)</t>
-  </si>
-  <si>
-    <t>to finish, to complete (pf.)</t>
-  </si>
-  <si>
-    <t>končit</t>
-  </si>
-  <si>
-    <t>закінчувати, завершувати (недок.)</t>
-  </si>
-  <si>
-    <t>заканчивать, завершать (недок.)</t>
-  </si>
-  <si>
-    <t>to finish, to complete (impf.)</t>
-  </si>
-  <si>
     <t>poslat doporučeně</t>
   </si>
   <si>
-    <t>відправити рекомендованим листом</t>
-  </si>
-  <si>
-    <t>отправить заказным письмом</t>
-  </si>
-  <si>
-    <t>to send (e.g., a letter) by registered mail</t>
-  </si>
-  <si>
-    <t>рекомендованим (способом)</t>
-  </si>
-  <si>
-    <t>заказным (способом)</t>
-  </si>
-  <si>
-    <t>by registered mail/post</t>
-  </si>
-  <si>
     <t>рекомендований</t>
   </si>
   <si>
-    <t>заказной, рекомендуемый</t>
-  </si>
-  <si>
-    <t>registered, recommended (male)</t>
-  </si>
-  <si>
-    <t>doporučená</t>
-  </si>
-  <si>
     <t>рекомендована</t>
   </si>
   <si>
-    <t>заказная, рекомендуемая</t>
-  </si>
-  <si>
-    <t>registered, recommended (female)</t>
-  </si>
-  <si>
-    <t>doporučené</t>
-  </si>
-  <si>
     <t>рекомендоване</t>
   </si>
   <si>
-    <t>заказное, рекомендуемое</t>
-  </si>
-  <si>
-    <t>registered, recommended (neut.)</t>
-  </si>
-  <si>
-    <t>відпустка, дозвіл</t>
-  </si>
-  <si>
-    <t>отпуск, разрешение</t>
-  </si>
-  <si>
-    <t>holiday, vacation, permission</t>
-  </si>
-  <si>
     <t>dřív</t>
   </si>
   <si>
-    <t>раніше, швидше</t>
-  </si>
-  <si>
-    <t>раньше, скорее</t>
-  </si>
-  <si>
-    <t>earlier, sooner</t>
-  </si>
-  <si>
     <t>dříve</t>
   </si>
   <si>
-    <t>důchod</t>
-  </si>
-  <si>
     <t>пенсія</t>
   </si>
   <si>
     <t>пенсия</t>
   </si>
   <si>
-    <t>pension</t>
-  </si>
-  <si>
-    <t>být v důchodu</t>
-  </si>
-  <si>
     <t>бути на пенсії</t>
   </si>
   <si>
@@ -630,186 +168,75 @@
     <t>to be retired</t>
   </si>
   <si>
-    <t>důchodce</t>
-  </si>
-  <si>
     <t>пенсіонер</t>
   </si>
   <si>
     <t>пенсионер</t>
   </si>
   <si>
-    <t>pensioner, retiree (male)</t>
-  </si>
-  <si>
-    <t>důchodkyně</t>
-  </si>
-  <si>
     <t>пенсіонерка</t>
   </si>
   <si>
     <t>пенсионерка</t>
   </si>
   <si>
-    <t>pensioner, retiree (female)</t>
-  </si>
-  <si>
     <t>економічний</t>
   </si>
   <si>
     <t>экономический</t>
   </si>
   <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>ekonomická</t>
-  </si>
-  <si>
     <t>економічна</t>
   </si>
   <si>
     <t>экономическая</t>
   </si>
   <si>
-    <t>ekonomické</t>
-  </si>
-  <si>
     <t>економічне</t>
   </si>
   <si>
     <t>экономическое</t>
   </si>
   <si>
-    <t>експрес, терміново</t>
-  </si>
-  <si>
-    <t>экспресс, срочно</t>
-  </si>
-  <si>
     <t>express</t>
   </si>
   <si>
     <t>факультет</t>
   </si>
   <si>
-    <t>faculty</t>
-  </si>
-  <si>
     <t>філософський</t>
   </si>
   <si>
     <t>философский</t>
   </si>
   <si>
-    <t>philosophical</t>
-  </si>
-  <si>
-    <t>filozofická</t>
-  </si>
-  <si>
     <t>філософська</t>
   </si>
   <si>
     <t>философская</t>
   </si>
   <si>
-    <t>filozofické</t>
-  </si>
-  <si>
     <t>філософське</t>
   </si>
   <si>
     <t>философское</t>
   </si>
   <si>
-    <t>gymnázium</t>
-  </si>
-  <si>
     <t>гімназія</t>
   </si>
   <si>
     <t>гимназия</t>
   </si>
   <si>
-    <t>gymnasium (grammar school)</t>
-  </si>
-  <si>
     <t>chybět</t>
   </si>
   <si>
-    <t>бракувати, бути відсутнім, сумувати</t>
-  </si>
-  <si>
-    <t>не хватать, отсутствовать, скучать</t>
-  </si>
-  <si>
-    <t>to miss, to be absent (impf.)</t>
-  </si>
-  <si>
-    <t>inženýr</t>
-  </si>
-  <si>
-    <t>інженер</t>
-  </si>
-  <si>
-    <t>инженер</t>
-  </si>
-  <si>
-    <t>engineer (male)</t>
-  </si>
-  <si>
-    <t>inženýrka</t>
-  </si>
-  <si>
-    <t>інженерка</t>
-  </si>
-  <si>
-    <t>engineer (female)</t>
-  </si>
-  <si>
-    <t>як, у якості, ніби</t>
-  </si>
-  <si>
-    <t>как, в качестве, будто</t>
-  </si>
-  <si>
-    <t>as, like, in the capacity of</t>
-  </si>
-  <si>
-    <t>інакше, по-іншому, а то</t>
-  </si>
-  <si>
-    <t>иначе, по-другому, а то</t>
-  </si>
-  <si>
-    <t>otherwise, differently, or else</t>
-  </si>
-  <si>
-    <t>сумочка, дамська сумка</t>
-  </si>
-  <si>
-    <t>сумочка, дамская сумка</t>
-  </si>
-  <si>
     <t>handbag, purse</t>
   </si>
   <si>
     <t>кафедра</t>
   </si>
   <si>
-    <t>department, chair (university)</t>
-  </si>
-  <si>
-    <t>колесо, велосипед, коло</t>
-  </si>
-  <si>
-    <t>колесо, велосипед, круг</t>
-  </si>
-  <si>
-    <t>wheel, bicycle, circle</t>
-  </si>
-  <si>
     <t>контактна адреса</t>
   </si>
   <si>
@@ -819,108 +246,12 @@
     <t>contact address</t>
   </si>
   <si>
-    <t>літаком, авіапоштою</t>
-  </si>
-  <si>
-    <t>самолетом, авиапочтой</t>
-  </si>
-  <si>
-    <t>by air, by airmail</t>
-  </si>
-  <si>
-    <t>mateřská</t>
-  </si>
-  <si>
-    <t>декретна відпустка, материнська</t>
-  </si>
-  <si>
-    <t>декретный отпуск, материнский</t>
-  </si>
-  <si>
-    <t>maternity (adj.)</t>
-  </si>
-  <si>
-    <t>být na mateřské (dovolené)</t>
-  </si>
-  <si>
-    <t>бути у декретній відпустці</t>
-  </si>
-  <si>
-    <t>быть в декретном отпуске</t>
-  </si>
-  <si>
     <t>to be on maternity leave</t>
   </si>
   <si>
-    <t>матура, іспит зрілості (середня освіта)</t>
-  </si>
-  <si>
-    <t>матура, экзамен зрелости</t>
-  </si>
-  <si>
-    <t>high school leaving exam, matriculation</t>
-  </si>
-  <si>
-    <t>медицина, ліки</t>
-  </si>
-  <si>
-    <t>медицина, лекарство</t>
-  </si>
-  <si>
     <t>medicine</t>
   </si>
   <si>
-    <t>měnit na</t>
-  </si>
-  <si>
-    <t>міняти на, обмінювати на (недок.)</t>
-  </si>
-  <si>
-    <t>менять на, обменивать на (недок.)</t>
-  </si>
-  <si>
-    <t>to change to, to exchange for (impf.)</t>
-  </si>
-  <si>
-    <t>vyměnit na</t>
-  </si>
-  <si>
-    <t>поміняти на, обміняти на (док.)</t>
-  </si>
-  <si>
-    <t>поменять на, обменять на (док.)</t>
-  </si>
-  <si>
-    <t>to change to, to exchange for (pf.)</t>
-  </si>
-  <si>
-    <t>минулий, попередній</t>
-  </si>
-  <si>
-    <t>прошлый, предыдущий</t>
-  </si>
-  <si>
-    <t>last, past, previous</t>
-  </si>
-  <si>
-    <t>minulá</t>
-  </si>
-  <si>
-    <t>минула, попередня</t>
-  </si>
-  <si>
-    <t>прошлая, предыдущая</t>
-  </si>
-  <si>
-    <t>minulé</t>
-  </si>
-  <si>
-    <t>минуле, попереднє</t>
-  </si>
-  <si>
-    <t>прошлое, предыдущее</t>
-  </si>
-  <si>
     <t>місце народження</t>
   </si>
   <si>
@@ -933,36 +264,9 @@
     <t>mít</t>
   </si>
   <si>
-    <t>мати, мусити (недок.)</t>
-  </si>
-  <si>
-    <t>иметь, долженствовать (недок.)</t>
-  </si>
-  <si>
-    <t>to have, to have to (impf.)</t>
-  </si>
-  <si>
     <t>mluvit o</t>
   </si>
   <si>
-    <t>говорити про, розмовляти про (недок.)</t>
-  </si>
-  <si>
-    <t>говорить о, разговаривать о (недок.)</t>
-  </si>
-  <si>
-    <t>to talk about, to speak about (impf.)</t>
-  </si>
-  <si>
-    <t>народитися (док.)</t>
-  </si>
-  <si>
-    <t>родиться (док.)</t>
-  </si>
-  <si>
-    <t>to be born (pf.)</t>
-  </si>
-  <si>
     <t>народження</t>
   </si>
   <si>
@@ -978,117 +282,24 @@
     <t>недавно</t>
   </si>
   <si>
-    <t>recently, not long ago</t>
-  </si>
-  <si>
-    <t>нещасний випадок, аварія</t>
-  </si>
-  <si>
-    <t>несчастный случай, авария</t>
-  </si>
-  <si>
     <t>accident</t>
   </si>
   <si>
-    <t>nechávat</t>
-  </si>
-  <si>
-    <t>залишати, дозволяти (недок.)</t>
-  </si>
-  <si>
-    <t>оставлять, разрешать (недок.)</t>
-  </si>
-  <si>
-    <t>to leave, to let (impf.)</t>
-  </si>
-  <si>
-    <t>nechat</t>
-  </si>
-  <si>
-    <t>залишити, дозволити (док.)</t>
-  </si>
-  <si>
-    <t>оставить, разрешить (док.)</t>
-  </si>
-  <si>
-    <t>to leave, to let (pf.)</t>
-  </si>
-  <si>
     <t>nejdřív</t>
   </si>
   <si>
-    <t>спочатку, перш за все</t>
-  </si>
-  <si>
     <t>сначала, прежде всего</t>
   </si>
   <si>
-    <t>first, first of all</t>
-  </si>
-  <si>
     <t>nejdříve</t>
   </si>
   <si>
-    <t>недійсний, нечинний</t>
-  </si>
-  <si>
-    <t>недействительный, негодный</t>
-  </si>
-  <si>
-    <t>invalid, not valid (male)</t>
-  </si>
-  <si>
-    <t>neplatná</t>
-  </si>
-  <si>
-    <t>недійсна, нечинна</t>
-  </si>
-  <si>
-    <t>недействительная, негодная</t>
-  </si>
-  <si>
-    <t>invalid, not valid (female)</t>
-  </si>
-  <si>
-    <t>neplatné</t>
-  </si>
-  <si>
-    <t>недійсне, нечинне</t>
-  </si>
-  <si>
-    <t>недействительное, негодное</t>
-  </si>
-  <si>
-    <t>invalid, not valid (neut.)</t>
-  </si>
-  <si>
     <t>nést</t>
   </si>
   <si>
-    <t>нести (недок.)</t>
-  </si>
-  <si>
-    <t>to carry (impf.)</t>
-  </si>
-  <si>
     <t>nesu</t>
   </si>
   <si>
-    <t>я несу</t>
-  </si>
-  <si>
-    <t>I carry</t>
-  </si>
-  <si>
-    <t>nesl</t>
-  </si>
-  <si>
-    <t>він ніс</t>
-  </si>
-  <si>
-    <t>он нес</t>
-  </si>
-  <si>
     <t>he carried</t>
   </si>
   <si>
@@ -1101,9 +312,6 @@
     <t>unemployed (male)</t>
   </si>
   <si>
-    <t>nezaměstnaná</t>
-  </si>
-  <si>
     <t>безробітна</t>
   </si>
   <si>
@@ -1113,117 +321,42 @@
     <t>unemployed (female)</t>
   </si>
   <si>
-    <t>nezaměstnané</t>
-  </si>
-  <si>
     <t>безробітне</t>
   </si>
   <si>
     <t>безработное</t>
   </si>
   <si>
-    <t>unemployed (neut.)</t>
-  </si>
-  <si>
-    <t>oba</t>
-  </si>
-  <si>
     <t>обидва</t>
   </si>
   <si>
     <t>оба</t>
   </si>
   <si>
-    <t>both (masc. animate/masc. inanimate)</t>
-  </si>
-  <si>
-    <t>obě</t>
-  </si>
-  <si>
-    <t>обидві, обидва (жін., серед.)</t>
-  </si>
-  <si>
     <t>обе</t>
   </si>
   <si>
-    <t>both (female/neuter)</t>
-  </si>
-  <si>
-    <t>конверт, обкладинка</t>
-  </si>
-  <si>
-    <t>конверт, обложка</t>
-  </si>
-  <si>
-    <t>envelope, cover</t>
-  </si>
-  <si>
-    <t>громадянський паспорт (розмовне)</t>
-  </si>
-  <si>
-    <t>гражданский паспорт (разг.)</t>
-  </si>
-  <si>
     <t>ID card (colloquial)</t>
   </si>
   <si>
-    <t>občanský</t>
-  </si>
-  <si>
     <t>громадянський</t>
   </si>
   <si>
     <t>гражданский</t>
   </si>
   <si>
-    <t>civil, citizen's (male)</t>
-  </si>
-  <si>
-    <t>občanská</t>
-  </si>
-  <si>
     <t>громадянська</t>
   </si>
   <si>
     <t>гражданская</t>
   </si>
   <si>
-    <t>civil, citizen's (female)</t>
-  </si>
-  <si>
-    <t>občanské</t>
-  </si>
-  <si>
     <t>громадянське</t>
   </si>
   <si>
     <t>гражданское</t>
   </si>
   <si>
-    <t>civil, citizen's (neut.)</t>
-  </si>
-  <si>
-    <t>občanský průkaz</t>
-  </si>
-  <si>
-    <t>громадянський паспорт, посвідчення особи</t>
-  </si>
-  <si>
-    <t>гражданский паспорт, удостоверение личности</t>
-  </si>
-  <si>
-    <t>ID card, identity document</t>
-  </si>
-  <si>
-    <t>obec</t>
-  </si>
-  <si>
-    <t>громада, селище, муніципалітет</t>
-  </si>
-  <si>
-    <t>община, поселок, муниципалитет</t>
-  </si>
-  <si>
     <t>municipality, village</t>
   </si>
   <si>
@@ -1233,57 +366,9 @@
     <t>специальность, отрасль</t>
   </si>
   <si>
-    <t>field of study, major, branch</t>
-  </si>
-  <si>
-    <t>звичайно, зазвичай</t>
-  </si>
-  <si>
-    <t>обычно, как правило</t>
-  </si>
-  <si>
     <t>usually, ordinarily</t>
   </si>
   <si>
-    <t>фаховий, спеціалізований</t>
-  </si>
-  <si>
-    <t>профессиональный, специализированный</t>
-  </si>
-  <si>
-    <t>professional, specialized</t>
-  </si>
-  <si>
-    <t>odborná</t>
-  </si>
-  <si>
-    <t>фахова, спеціалізована</t>
-  </si>
-  <si>
-    <t>профессиональная, специализированная</t>
-  </si>
-  <si>
-    <t>odborné</t>
-  </si>
-  <si>
-    <t>фахове, спеціалізоване</t>
-  </si>
-  <si>
-    <t>профессиональное, специализированное</t>
-  </si>
-  <si>
-    <t>відділення, відділ</t>
-  </si>
-  <si>
-    <t>отделение, отдел</t>
-  </si>
-  <si>
-    <t>department, section</t>
-  </si>
-  <si>
-    <t>odpověď</t>
-  </si>
-  <si>
     <t>відповідь</t>
   </si>
   <si>
@@ -1293,57 +378,12 @@
     <t>answer, reply</t>
   </si>
   <si>
-    <t>помилка, омана</t>
-  </si>
-  <si>
     <t>ошибка, заблуждение</t>
   </si>
   <si>
-    <t>години роботи, час відкриття</t>
-  </si>
-  <si>
-    <t>часы работы, время открытия</t>
-  </si>
-  <si>
-    <t>opening hours</t>
-  </si>
-  <si>
-    <t>pamatovat si</t>
-  </si>
-  <si>
-    <t>пам'ятати, запам'ятовувати (недок.)</t>
-  </si>
-  <si>
-    <t>помнить, запоминать (недок.)</t>
-  </si>
-  <si>
-    <t>to remember, to memorize (impf.)</t>
-  </si>
-  <si>
-    <t>zapamatovat si</t>
-  </si>
-  <si>
-    <t>запам'ятати (док.)</t>
-  </si>
-  <si>
-    <t>запомнить (док.)</t>
-  </si>
-  <si>
-    <t>to remember, to memorize (pf.)</t>
-  </si>
-  <si>
-    <t>папір, документ</t>
-  </si>
-  <si>
-    <t>бумага, документ</t>
-  </si>
-  <si>
     <t>paper</t>
   </si>
   <si>
-    <t>паспорт</t>
-  </si>
-  <si>
     <t>passport</t>
   </si>
   <si>
@@ -1353,21 +393,12 @@
     <t>педагогический</t>
   </si>
   <si>
-    <t>pedagogical</t>
-  </si>
-  <si>
-    <t>pedagogická</t>
-  </si>
-  <si>
     <t>педагогічна</t>
   </si>
   <si>
     <t>педагогическая</t>
   </si>
   <si>
-    <t>pedagogické</t>
-  </si>
-  <si>
     <t>педагогічне</t>
   </si>
   <si>
@@ -1377,9 +408,6 @@
     <t>гаманець</t>
   </si>
   <si>
-    <t>кошелек, бумажник</t>
-  </si>
-  <si>
     <t>wallet, purse</t>
   </si>
   <si>
@@ -1389,42 +417,12 @@
     <t>зарплата, оклад</t>
   </si>
   <si>
-    <t>salary, pay</t>
-  </si>
-  <si>
-    <t>дійсний, чинний</t>
-  </si>
-  <si>
-    <t>действительный, годный</t>
-  </si>
-  <si>
     <t>valid (male)</t>
   </si>
   <si>
-    <t>platná</t>
-  </si>
-  <si>
-    <t>дійсна, чинна</t>
-  </si>
-  <si>
-    <t>действительная, годная</t>
-  </si>
-  <si>
     <t>valid (female)</t>
   </si>
   <si>
-    <t>platné</t>
-  </si>
-  <si>
-    <t>дійсне, чинне</t>
-  </si>
-  <si>
-    <t>действительное, годное</t>
-  </si>
-  <si>
-    <t>valid (neut.)</t>
-  </si>
-  <si>
     <t>перебування, проживання</t>
   </si>
   <si>
@@ -1443,9 +441,6 @@
     <t>Подпишись.</t>
   </si>
   <si>
-    <t>Sign (informal)</t>
-  </si>
-  <si>
     <t>Podepište se.</t>
   </si>
   <si>
@@ -1455,54 +450,9 @@
     <t>Подпишитесь.</t>
   </si>
   <si>
-    <t>Sign (formal/plural)</t>
-  </si>
-  <si>
     <t>podepsat</t>
   </si>
   <si>
-    <t>підписати (док.)</t>
-  </si>
-  <si>
-    <t>подписать (док.)</t>
-  </si>
-  <si>
-    <t>to sign (pf.)</t>
-  </si>
-  <si>
-    <t>подібний, схожий</t>
-  </si>
-  <si>
-    <t>подобный, похожий</t>
-  </si>
-  <si>
-    <t>similar, like (male)</t>
-  </si>
-  <si>
-    <t>podobná</t>
-  </si>
-  <si>
-    <t>подібна, схожа</t>
-  </si>
-  <si>
-    <t>подобная, похожая</t>
-  </si>
-  <si>
-    <t>similar, like (female)</t>
-  </si>
-  <si>
-    <t>podobné</t>
-  </si>
-  <si>
-    <t>подібне, схоже</t>
-  </si>
-  <si>
-    <t>подобное, похожее</t>
-  </si>
-  <si>
-    <t>similar, like (neut.)</t>
-  </si>
-  <si>
     <t>підпис</t>
   </si>
   <si>
@@ -1512,12 +462,6 @@
     <t>signature</t>
   </si>
   <si>
-    <t>страхування</t>
-  </si>
-  <si>
-    <t>страхование</t>
-  </si>
-  <si>
     <t>insurance</t>
   </si>
   <si>
@@ -1530,9 +474,6 @@
     <t>insured (male)</t>
   </si>
   <si>
-    <t>pojištěná</t>
-  </si>
-  <si>
     <t>застрахована</t>
   </si>
   <si>
@@ -1542,264 +483,78 @@
     <t>insured (female)</t>
   </si>
   <si>
-    <t>pojištěné</t>
-  </si>
-  <si>
     <t>застраховане</t>
   </si>
   <si>
     <t>застрахованное</t>
   </si>
   <si>
-    <t>insured (neut.)</t>
-  </si>
-  <si>
     <t>штраф</t>
   </si>
   <si>
     <t>fine, penalty</t>
   </si>
   <si>
-    <t>поліцейський відділок, поліцейська станція</t>
-  </si>
-  <si>
-    <t>полицейский участок, полицейская станция</t>
-  </si>
-  <si>
     <t>police station</t>
   </si>
   <si>
-    <t>policista</t>
-  </si>
-  <si>
     <t>поліцейський</t>
   </si>
   <si>
     <t>полицейский</t>
   </si>
   <si>
-    <t>policeman</t>
-  </si>
-  <si>
-    <t>policistka</t>
-  </si>
-  <si>
     <t>поліцейська</t>
   </si>
   <si>
-    <t>полицейская</t>
-  </si>
-  <si>
-    <t>policewoman</t>
-  </si>
-  <si>
-    <t>posílat</t>
-  </si>
-  <si>
-    <t>надсилати, відправляти (недок.)</t>
-  </si>
-  <si>
-    <t>посылать, отправлять (недок.)</t>
-  </si>
-  <si>
-    <t>to send, to mail (impf.)</t>
-  </si>
-  <si>
-    <t>poslat</t>
-  </si>
-  <si>
-    <t>надіслати, відправити (док.)</t>
-  </si>
-  <si>
-    <t>послать, отправить (док.)</t>
-  </si>
-  <si>
-    <t>to send, to mail (pf.)</t>
-  </si>
-  <si>
-    <t>останній, крайній</t>
-  </si>
-  <si>
-    <t>последний, крайний</t>
-  </si>
-  <si>
     <t>last, final</t>
   </si>
   <si>
-    <t>pošťák</t>
-  </si>
-  <si>
-    <t>листоноша, поштар</t>
-  </si>
-  <si>
-    <t>почтальон, почтовик</t>
-  </si>
-  <si>
-    <t>postman, mail carrier (male)</t>
-  </si>
-  <si>
-    <t>pošťačka</t>
-  </si>
-  <si>
-    <t>листоноша, поштарка</t>
-  </si>
-  <si>
-    <t>postwoman, mail carrier (female)</t>
-  </si>
-  <si>
     <t>поштова скринька</t>
   </si>
   <si>
     <t>почтовый ящик</t>
   </si>
   <si>
-    <t>mailbox, post box</t>
-  </si>
-  <si>
     <t>povídat si o</t>
   </si>
   <si>
-    <t>розмовляти про, балакати про (недок.)</t>
-  </si>
-  <si>
-    <t>разговаривать о, беседовать о (недок.)</t>
-  </si>
-  <si>
-    <t>to chat about, to talk about (impf.)</t>
-  </si>
-  <si>
     <t>пізніше</t>
   </si>
   <si>
-    <t>позже</t>
-  </si>
-  <si>
     <t>later</t>
   </si>
   <si>
-    <t>profese</t>
-  </si>
-  <si>
-    <t>професія, фах</t>
-  </si>
-  <si>
-    <t>профессия, специальность</t>
-  </si>
-  <si>
-    <t>profession, occupation</t>
-  </si>
-  <si>
-    <t>проєкт</t>
-  </si>
-  <si>
     <t>проект</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>promoce</t>
-  </si>
-  <si>
-    <t>промоція, випускний (університетський)</t>
-  </si>
-  <si>
-    <t>выпуск, торжественное вручение дипломов</t>
-  </si>
-  <si>
-    <t>graduation ceremony, commencement</t>
-  </si>
-  <si>
-    <t>посвідчення, пропуск, документ</t>
-  </si>
-  <si>
-    <t>удостоверение, пропуск, документ</t>
-  </si>
-  <si>
-    <t>identity card, pass, document</t>
-  </si>
-  <si>
     <t>перед тим, раніше</t>
   </si>
   <si>
     <t>перед этим, раньше</t>
   </si>
   <si>
-    <t>before that, previously</t>
-  </si>
-  <si>
     <t>přemýšlet o</t>
   </si>
   <si>
-    <t>розмірковувати про, думати про (недок.)</t>
-  </si>
-  <si>
-    <t>размышлять о, думать о (недок.)</t>
-  </si>
-  <si>
-    <t>to think about, to ponder (impf.)</t>
-  </si>
-  <si>
-    <t>перерва, пауза</t>
-  </si>
-  <si>
-    <t>перерыв, пауза</t>
-  </si>
-  <si>
-    <t>break, intermission</t>
-  </si>
-  <si>
-    <t>історія, розповідь, сюжет</t>
-  </si>
-  <si>
-    <t>история, рассказ, сюжет</t>
-  </si>
-  <si>
-    <t>story, narrative, plot</t>
-  </si>
-  <si>
-    <t>заява (на вступ), реєстраційна форма</t>
-  </si>
-  <si>
-    <t>заявление (на поступление), регистрационная форма</t>
-  </si>
-  <si>
-    <t>application form, registration</t>
-  </si>
-  <si>
     <t>перший поверх, партер</t>
   </si>
   <si>
-    <t>первый этаж, партер</t>
-  </si>
-  <si>
-    <t>ground floor, first floor (UK)</t>
-  </si>
-  <si>
     <t>поштовий індекс</t>
   </si>
   <si>
     <t>почтовый индекс</t>
   </si>
   <si>
-    <t>postal code, ZIP code</t>
-  </si>
-  <si>
-    <t>půlnoc</t>
-  </si>
-  <si>
-    <t>північ</t>
-  </si>
-  <si>
     <t>полночь</t>
   </si>
   <si>
     <t>midnight</t>
   </si>
   <si>
-    <t>o půlnoci</t>
-  </si>
-  <si>
     <t>опівночі</t>
   </si>
   <si>
@@ -1809,54 +564,15 @@
     <t>at midnight</t>
   </si>
   <si>
-    <t>радіо, приймач</t>
-  </si>
-  <si>
-    <t>радио, приемник</t>
-  </si>
-  <si>
     <t>radio</t>
   </si>
   <si>
-    <t>studijní referent</t>
-  </si>
-  <si>
-    <t>навчальний референт, працівник навчальної частини</t>
-  </si>
-  <si>
-    <t>учебный референт, работник учебной части</t>
-  </si>
-  <si>
     <t>study administrator (male)</t>
   </si>
   <si>
-    <t>studijní referentka</t>
-  </si>
-  <si>
-    <t>навчальний референт, працівниця навчальної частини</t>
-  </si>
-  <si>
     <t>study administrator (female)</t>
   </si>
   <si>
-    <t>особистий номер (ідентифікаційний)</t>
-  </si>
-  <si>
-    <t>личный номер (идентификационный)</t>
-  </si>
-  <si>
-    <t>personal ID number</t>
-  </si>
-  <si>
-    <t>дошлюбне прізвище</t>
-  </si>
-  <si>
-    <t>девичья фамилия, фамилия при рождении</t>
-  </si>
-  <si>
-    <t>maiden name, birth surname</t>
-  </si>
-  <si>
     <t>рік</t>
   </si>
   <si>
@@ -1869,78 +585,18 @@
     <t>rozměnit</t>
   </si>
   <si>
-    <t>розміняти (гроші) (док.)</t>
-  </si>
-  <si>
-    <t>разменять (деньги) (док.)</t>
-  </si>
-  <si>
-    <t>to change, to break (money) (pf.)</t>
-  </si>
-  <si>
-    <t>швидко, хутко</t>
-  </si>
-  <si>
-    <t>быстро, скоро</t>
-  </si>
-  <si>
     <t>quickly, fast</t>
   </si>
   <si>
-    <t>řidičský</t>
-  </si>
-  <si>
-    <t>водійський</t>
-  </si>
-  <si>
-    <t>водительский</t>
-  </si>
-  <si>
-    <t>driver's (adj.)</t>
-  </si>
-  <si>
-    <t>řidičský průkaz</t>
-  </si>
-  <si>
-    <t>водійські права, посвідчення водія</t>
-  </si>
-  <si>
-    <t>водительские права, удостоверение водителя</t>
-  </si>
-  <si>
-    <t>driving licence, driver's license</t>
-  </si>
-  <si>
     <t>řídit</t>
   </si>
   <si>
-    <t>керувати, водити (авто) (недок.)</t>
-  </si>
-  <si>
-    <t>управлять, водить (авто) (недок.)</t>
-  </si>
-  <si>
-    <t>to drive, to manage (impf.)</t>
-  </si>
-  <si>
     <t>сюди</t>
   </si>
   <si>
     <t>сюда</t>
   </si>
   <si>
-    <t>here (to this place)</t>
-  </si>
-  <si>
-    <t>семестр, півріччя</t>
-  </si>
-  <si>
-    <t>семестр, полугодие</t>
-  </si>
-  <si>
-    <t>semester, term</t>
-  </si>
-  <si>
     <t>слово</t>
   </si>
   <si>
@@ -1950,54 +606,12 @@
     <t>slyšet o</t>
   </si>
   <si>
-    <t>чути про (недок.)</t>
-  </si>
-  <si>
-    <t>слышать о (недок.)</t>
-  </si>
-  <si>
-    <t>to hear about (impf.)</t>
-  </si>
-  <si>
-    <t>обмінний пункт, міняльня</t>
-  </si>
-  <si>
-    <t>обменный пункт</t>
-  </si>
-  <si>
-    <t>currency exchange office</t>
-  </si>
-  <si>
     <t>smět</t>
   </si>
   <si>
-    <t>сміти, мати дозвіл</t>
-  </si>
-  <si>
-    <t>сметь, иметь разрешение</t>
-  </si>
-  <si>
     <t>may, to be allowed to</t>
   </si>
   <si>
-    <t>договір, угода</t>
-  </si>
-  <si>
-    <t>договор, соглашение</t>
-  </si>
-  <si>
-    <t>contract, agreement</t>
-  </si>
-  <si>
-    <t>статуя, скульптура</t>
-  </si>
-  <si>
-    <t>statue, sculpture</t>
-  </si>
-  <si>
-    <t>specializace</t>
-  </si>
-  <si>
     <t>спеціалізація</t>
   </si>
   <si>
@@ -2007,60 +621,18 @@
     <t>specialization</t>
   </si>
   <si>
-    <t>середня школа</t>
-  </si>
-  <si>
-    <t>средняя школа</t>
-  </si>
-  <si>
-    <t>secondary school (abbr.)</t>
-  </si>
-  <si>
-    <t>státní zkouška</t>
-  </si>
-  <si>
     <t>державний іспит</t>
   </si>
   <si>
-    <t>государственный экзамен</t>
-  </si>
-  <si>
     <t>state exam</t>
   </si>
   <si>
-    <t>státnice</t>
-  </si>
-  <si>
-    <t>державний іспит (розмовне)</t>
-  </si>
-  <si>
     <t>госэкзамен (разг.)</t>
   </si>
   <si>
     <t>state exam (colloquial)</t>
   </si>
   <si>
-    <t>stáž</t>
-  </si>
-  <si>
-    <t>стажування, практика</t>
-  </si>
-  <si>
-    <t>стажировка, практика</t>
-  </si>
-  <si>
-    <t>internship, traineeship</t>
-  </si>
-  <si>
-    <t>однаково, так само, все одно</t>
-  </si>
-  <si>
-    <t>одинаково, так же, все равно</t>
-  </si>
-  <si>
-    <t>equally, just as, anyway</t>
-  </si>
-  <si>
     <t>однаковий, такий самий</t>
   </si>
   <si>
@@ -2070,9 +642,6 @@
     <t>same, identical (male)</t>
   </si>
   <si>
-    <t>stejná</t>
-  </si>
-  <si>
     <t>однакова, така сама</t>
   </si>
   <si>
@@ -2082,111 +651,30 @@
     <t>same, identical (female)</t>
   </si>
   <si>
-    <t>stejné</t>
-  </si>
-  <si>
     <t>однакове, таке саме</t>
   </si>
   <si>
     <t>одинаковое, такое же</t>
   </si>
   <si>
-    <t>same, identical (neut.)</t>
-  </si>
-  <si>
-    <t>сторінка, вебсторінка</t>
-  </si>
-  <si>
-    <t>страница, веб-страница</t>
-  </si>
-  <si>
-    <t>page, website</t>
-  </si>
-  <si>
-    <t>secondary school</t>
-  </si>
-  <si>
-    <t>середньошкільний</t>
-  </si>
-  <si>
-    <t>среднешкольный</t>
-  </si>
-  <si>
-    <t>secondary school (adj.)</t>
-  </si>
-  <si>
-    <t>středoškolská</t>
-  </si>
-  <si>
-    <t>середньошкільна</t>
-  </si>
-  <si>
-    <t>среднешкольная</t>
-  </si>
-  <si>
-    <t>středoškolské</t>
-  </si>
-  <si>
-    <t>середньошкільне</t>
-  </si>
-  <si>
-    <t>среднешкольное</t>
-  </si>
-  <si>
     <t>студентський</t>
   </si>
   <si>
     <t>студенческий</t>
   </si>
   <si>
-    <t>student (adj.)</t>
-  </si>
-  <si>
-    <t>studentská</t>
-  </si>
-  <si>
     <t>студентська</t>
   </si>
   <si>
     <t>студенческая</t>
   </si>
   <si>
-    <t>studentské</t>
-  </si>
-  <si>
     <t>студентське</t>
   </si>
   <si>
     <t>студенческое</t>
   </si>
   <si>
-    <t>навчальний, студійний</t>
-  </si>
-  <si>
-    <t>учебный, студийный</t>
-  </si>
-  <si>
-    <t>study (adj.), academic</t>
-  </si>
-  <si>
-    <t>навчальна частина, деканат</t>
-  </si>
-  <si>
-    <t>учебная часть, деканат</t>
-  </si>
-  <si>
-    <t>study department, registrar's office</t>
-  </si>
-  <si>
-    <t>studium</t>
-  </si>
-  <si>
-    <t>навчання, студії</t>
-  </si>
-  <si>
-    <t>обучение, учеба</t>
-  </si>
-  <si>
     <t>study, studies</t>
   </si>
   <si>
@@ -2196,9 +684,6 @@
     <t>такой</t>
   </si>
   <si>
-    <t>such, such a</t>
-  </si>
-  <si>
     <t>така</t>
   </si>
   <si>
@@ -2217,21 +702,12 @@
     <t>технический</t>
   </si>
   <si>
-    <t>technical</t>
-  </si>
-  <si>
-    <t>technická</t>
-  </si>
-  <si>
     <t>технічна</t>
   </si>
   <si>
     <t>техническая</t>
   </si>
   <si>
-    <t>technické</t>
-  </si>
-  <si>
     <t>технічне</t>
   </si>
   <si>
@@ -2259,72 +735,24 @@
     <t>title, degree</t>
   </si>
   <si>
-    <t>рахунок, чек, банківський рахунок</t>
-  </si>
-  <si>
-    <t>счет, чек, банковский счет</t>
-  </si>
-  <si>
     <t>account, bill, check</t>
   </si>
   <si>
-    <t>(bankovní) účet</t>
-  </si>
-  <si>
     <t>(банківський) рахунок</t>
   </si>
   <si>
-    <t>(банковский) счет</t>
-  </si>
-  <si>
     <t>(bank) account</t>
   </si>
   <si>
     <t>umět</t>
   </si>
   <si>
-    <t>вміти, знати (як)</t>
-  </si>
-  <si>
-    <t>уметь, знать</t>
-  </si>
-  <si>
-    <t>to be able to, to know how to</t>
-  </si>
-  <si>
-    <t>úřední hodiny</t>
-  </si>
-  <si>
-    <t>години прийому (офіційні)</t>
-  </si>
-  <si>
-    <t>приемные часы (официальные)</t>
-  </si>
-  <si>
     <t>office hours</t>
   </si>
   <si>
-    <t>úředník</t>
-  </si>
-  <si>
-    <t>урядовець, чиновник, службовець</t>
-  </si>
-  <si>
-    <t>чиновник, служащий</t>
-  </si>
-  <si>
     <t>official, clerk (male)</t>
   </si>
   <si>
-    <t>úřednice</t>
-  </si>
-  <si>
-    <t>урядовиця, чиновниця, службовиця</t>
-  </si>
-  <si>
-    <t>чиновница, служащая</t>
-  </si>
-  <si>
     <t>official, clerk (female)</t>
   </si>
   <si>
@@ -2337,30 +765,9 @@
     <t>yesterday</t>
   </si>
   <si>
-    <t>věc</t>
-  </si>
-  <si>
-    <t>річ, справа, предмет</t>
-  </si>
-  <si>
-    <t>вещь, дело, предмет</t>
-  </si>
-  <si>
-    <t>thing, matter, object</t>
-  </si>
-  <si>
-    <t>дуже, вельми</t>
-  </si>
-  <si>
-    <t>очень, весьма</t>
-  </si>
-  <si>
     <t>very</t>
   </si>
   <si>
-    <t>vízum</t>
-  </si>
-  <si>
     <t>віза</t>
   </si>
   <si>
@@ -2370,105 +777,12 @@
     <t>visa</t>
   </si>
   <si>
-    <t>вища школа, університет</t>
-  </si>
-  <si>
-    <t>высшая школа, университет</t>
-  </si>
-  <si>
-    <t>university (abbr.)</t>
-  </si>
-  <si>
-    <t>vybírat</t>
-  </si>
-  <si>
-    <t>вибирати, знімати (гроші) (недок.)</t>
-  </si>
-  <si>
-    <t>выбирать, снимать (деньги) (недок.)</t>
-  </si>
-  <si>
-    <t>to choose, to withdraw (money) (impf.)</t>
-  </si>
-  <si>
-    <t>vybrat</t>
-  </si>
-  <si>
-    <t>вибрати, зняти (гроші з банкомату) (док.)</t>
-  </si>
-  <si>
-    <t>выбрать, снять (деньги с банкомата) (док.)</t>
-  </si>
-  <si>
-    <t>to choose, to withdraw (money from ATM) (pf.)</t>
-  </si>
-  <si>
-    <t>vyplňovat</t>
-  </si>
-  <si>
-    <t>заповнювати (недок.)</t>
-  </si>
-  <si>
-    <t>заполнять (недок.)</t>
-  </si>
-  <si>
-    <t>to fill in/out (impf.)</t>
-  </si>
-  <si>
-    <t>vyplnit</t>
-  </si>
-  <si>
-    <t>заповнити (док.)</t>
-  </si>
-  <si>
-    <t>заполнить (док.)</t>
-  </si>
-  <si>
-    <t>to fill in/out (pf.)</t>
-  </si>
-  <si>
     <t>university, college</t>
   </si>
   <si>
-    <t>університетський, вищої школи</t>
-  </si>
-  <si>
-    <t>университетский, высшей школы</t>
-  </si>
-  <si>
-    <t>university (adj.), higher education (adj.)</t>
-  </si>
-  <si>
-    <t>vysokoškolská</t>
-  </si>
-  <si>
-    <t>університетська, вищої школи</t>
-  </si>
-  <si>
-    <t>университетская, высшей школы</t>
-  </si>
-  <si>
-    <t>vysokoškolské</t>
-  </si>
-  <si>
-    <t>університетське, вищої школи</t>
-  </si>
-  <si>
-    <t>университетское, высшей школы</t>
-  </si>
-  <si>
     <t>vystudovat</t>
   </si>
   <si>
-    <t>вивчитися, закінчити навчання (док.)</t>
-  </si>
-  <si>
-    <t>выучиться, окончить обучение (док.)</t>
-  </si>
-  <si>
-    <t>to study, to complete one's studies (pf.)</t>
-  </si>
-  <si>
     <t>освіта</t>
   </si>
   <si>
@@ -2484,114 +798,18 @@
     <t>сообщение, записка</t>
   </si>
   <si>
-    <t>message, note</t>
-  </si>
-  <si>
-    <t>веб, інтернет-сторінка</t>
-  </si>
-  <si>
-    <t>веб, интернет-страница</t>
-  </si>
-  <si>
     <t>web, website</t>
   </si>
   <si>
-    <t>webový</t>
-  </si>
-  <si>
-    <t>веб-, інтернет-</t>
-  </si>
-  <si>
-    <t>веб-, интернет-</t>
-  </si>
-  <si>
-    <t>web (adj.)</t>
-  </si>
-  <si>
-    <t>webová stránka</t>
-  </si>
-  <si>
-    <t>вебсторінка, сайт</t>
-  </si>
-  <si>
     <t>веб-страница, сайт</t>
   </si>
   <si>
-    <t>website, web page</t>
-  </si>
-  <si>
-    <t>закордон, чужі краї</t>
-  </si>
-  <si>
-    <t>заграница, чужие края</t>
-  </si>
-  <si>
     <t>abroad, foreign countries</t>
   </si>
   <si>
-    <t>закордонний, іноземний</t>
-  </si>
-  <si>
-    <t>заграничный, иностранный</t>
-  </si>
-  <si>
-    <t>foreign, overseas</t>
-  </si>
-  <si>
-    <t>початкова школа, основна школа</t>
-  </si>
-  <si>
-    <t>начальная школа, основная школа</t>
-  </si>
-  <si>
-    <t>primary school, elementary school</t>
-  </si>
-  <si>
-    <t>початкова освіта, базова освіта</t>
-  </si>
-  <si>
-    <t>начальное образование, базовое образование</t>
-  </si>
-  <si>
-    <t>primary education, basic education</t>
-  </si>
-  <si>
     <t>záležet</t>
   </si>
   <si>
-    <t>залежати</t>
-  </si>
-  <si>
-    <t>зависеть</t>
-  </si>
-  <si>
-    <t>to depend</t>
-  </si>
-  <si>
-    <t>To záleží na</t>
-  </si>
-  <si>
-    <t>Це залежить від</t>
-  </si>
-  <si>
-    <t>Это зависит от</t>
-  </si>
-  <si>
-    <t>That depends on</t>
-  </si>
-  <si>
-    <t>робота, зайнятість, працевлаштування</t>
-  </si>
-  <si>
-    <t>работа, занятость, трудоустройство</t>
-  </si>
-  <si>
-    <t>employment, job</t>
-  </si>
-  <si>
-    <t>zaměstnavatel</t>
-  </si>
-  <si>
     <t>роботодавець</t>
   </si>
   <si>
@@ -2601,133 +819,1909 @@
     <t>employer (male)</t>
   </si>
   <si>
-    <t>zaměstnavatelka</t>
-  </si>
-  <si>
-    <t>роботодавиця</t>
-  </si>
-  <si>
     <t>employer (female)</t>
   </si>
   <si>
-    <t>знову, ще раз, з іншого боку</t>
-  </si>
-  <si>
-    <t>снова, еще раз, с другой стороны</t>
-  </si>
-  <si>
-    <t>again, once more, on the other hand</t>
-  </si>
-  <si>
-    <t>zemřít</t>
-  </si>
-  <si>
-    <t>померти, вмерти (док.)</t>
-  </si>
-  <si>
-    <t>умереть, скончаться (док.)</t>
-  </si>
-  <si>
-    <t>to die (pf.)</t>
-  </si>
-  <si>
     <t>zemřu</t>
   </si>
   <si>
-    <t>я помру</t>
-  </si>
-  <si>
-    <t>я умру</t>
-  </si>
-  <si>
     <t>I will die</t>
   </si>
   <si>
-    <t>zemřel</t>
-  </si>
-  <si>
-    <t>він помер</t>
-  </si>
-  <si>
-    <t>он умер</t>
-  </si>
-  <si>
     <t>he died</t>
   </si>
   <si>
-    <t>марка, оцінка, знак</t>
-  </si>
-  <si>
-    <t>марка, оценка, знак</t>
-  </si>
-  <si>
-    <t>stamp, grade, mark</t>
-  </si>
-  <si>
-    <t>знову, ще раз</t>
-  </si>
-  <si>
-    <t>снова, опять</t>
-  </si>
-  <si>
-    <t>again, once more</t>
-  </si>
-  <si>
     <t>zrušit</t>
   </si>
   <si>
-    <t>скасувати, анулювати, ліквідувати (док.)</t>
-  </si>
-  <si>
-    <t>отменить, аннулировать, ликвидировать (док.)</t>
-  </si>
-  <si>
-    <t>to cancel, to abolish, to close (pf.)</t>
-  </si>
-  <si>
-    <t>початкова школа</t>
-  </si>
-  <si>
-    <t>начальная школа</t>
-  </si>
-  <si>
-    <t>primary school (abbr.)</t>
-  </si>
-  <si>
     <t>ztratit</t>
   </si>
   <si>
-    <t>загубити, втратити (док.)</t>
-  </si>
-  <si>
-    <t>потерять, утратить (док.)</t>
-  </si>
-  <si>
-    <t>to lose (pf.)</t>
-  </si>
-  <si>
-    <t>zůstávat</t>
-  </si>
-  <si>
-    <t>залишатися (недок.)</t>
-  </si>
-  <si>
-    <t>оставаться (недок.)</t>
-  </si>
-  <si>
-    <t>to stay, to remain (impf.)</t>
-  </si>
-  <si>
-    <t>zůstat</t>
-  </si>
-  <si>
-    <t>залишитися (док.)</t>
-  </si>
-  <si>
-    <t>остаться (док.)</t>
-  </si>
-  <si>
-    <t>to stay, to remain (pf.)</t>
+    <t>(M) absolvent</t>
+  </si>
+  <si>
+    <t>випускник</t>
+  </si>
+  <si>
+    <t>выпускник</t>
+  </si>
+  <si>
+    <t>(Ž) absolventka</t>
+  </si>
+  <si>
+    <t>випускниця</t>
+  </si>
+  <si>
+    <t>выпускница</t>
+  </si>
+  <si>
+    <t>закінчити, завершити (навчання)</t>
+  </si>
+  <si>
+    <t>окончить, завершить (учёбу)</t>
+  </si>
+  <si>
+    <t>to graduate, to complete</t>
+  </si>
+  <si>
+    <t>(M) automat</t>
+  </si>
+  <si>
+    <t>автомат, банкомат</t>
+  </si>
+  <si>
+    <t>vending machine, ATM, automatic machine</t>
+  </si>
+  <si>
+    <t>(Ž) autoškola</t>
+  </si>
+  <si>
+    <t>(M) balík</t>
+  </si>
+  <si>
+    <t>посилка, пакунок</t>
+  </si>
+  <si>
+    <t>parcel, package</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) bankovní</t>
+  </si>
+  <si>
+    <t>банківський, -а, -е</t>
+  </si>
+  <si>
+    <t>банковский, -ая, -ое</t>
+  </si>
+  <si>
+    <t>bank (adj), banking</t>
+  </si>
+  <si>
+    <t>(S) trvalé bydliště</t>
+  </si>
+  <si>
+    <t>permanent residence, permanent address</t>
+  </si>
+  <si>
+    <t>(M) certifikát</t>
+  </si>
+  <si>
+    <t>сертифікат</t>
+  </si>
+  <si>
+    <t>сертификат</t>
+  </si>
+  <si>
+    <t>Що відбувається?, Що діється?, Що трапилося?</t>
+  </si>
+  <si>
+    <t>Что происходит?, Что случается?</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) další</t>
+  </si>
+  <si>
+    <t>наступний, інший, -а, -е</t>
+  </si>
+  <si>
+    <t>следующий, другой, -ая, -ое</t>
+  </si>
+  <si>
+    <t>next, further, another</t>
+  </si>
+  <si>
+    <t>(S) datum narození</t>
+  </si>
+  <si>
+    <t>(M) diplom</t>
+  </si>
+  <si>
+    <t>diploma, degree certificate</t>
+  </si>
+  <si>
+    <t>(M) doklad</t>
+  </si>
+  <si>
+    <t>документ, посвідчення</t>
+  </si>
+  <si>
+    <t>документ, удостоверение</t>
+  </si>
+  <si>
+    <t>document, ID, proof</t>
+  </si>
+  <si>
+    <t>dokončit (pf)</t>
+  </si>
+  <si>
+    <t>закінчити, завершити</t>
+  </si>
+  <si>
+    <t>закончить, завершить, окончить</t>
+  </si>
+  <si>
+    <t>to finish, to complete (perfective)</t>
+  </si>
+  <si>
+    <t>končit (impf)</t>
+  </si>
+  <si>
+    <t>закінчувати, завершувати</t>
+  </si>
+  <si>
+    <t>заканчивать, кончать</t>
+  </si>
+  <si>
+    <t>to finish, to end (imperfective)</t>
+  </si>
+  <si>
+    <t>відправити рекомендованим (листом)</t>
+  </si>
+  <si>
+    <t>отправить заказным (письмом)</t>
+  </si>
+  <si>
+    <t>to send by registered mail</t>
+  </si>
+  <si>
+    <t>рекомендовано, рекомендованим листом</t>
+  </si>
+  <si>
+    <t>заказным (письмом)</t>
+  </si>
+  <si>
+    <t>by registered mail</t>
+  </si>
+  <si>
+    <t>(M) doporučený</t>
+  </si>
+  <si>
+    <t>рекомендованный, заказной</t>
+  </si>
+  <si>
+    <t>recommended, registered (male)</t>
+  </si>
+  <si>
+    <t>(Ž) doporučená</t>
+  </si>
+  <si>
+    <t>рекомендованная, заказная</t>
+  </si>
+  <si>
+    <t>recommended, registered (female)</t>
+  </si>
+  <si>
+    <t>(S) doporučené</t>
+  </si>
+  <si>
+    <t>рекомендованное, заказное</t>
+  </si>
+  <si>
+    <t>recommended, registered (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) dovolená</t>
+  </si>
+  <si>
+    <t>відпустка</t>
+  </si>
+  <si>
+    <t>отпуск</t>
+  </si>
+  <si>
+    <t>vacation, holiday</t>
+  </si>
+  <si>
+    <t>раніше</t>
+  </si>
+  <si>
+    <t>раньше, прежде</t>
+  </si>
+  <si>
+    <t>earlier, before</t>
+  </si>
+  <si>
+    <t>(M) důchod</t>
+  </si>
+  <si>
+    <t>pension, retirement</t>
+  </si>
+  <si>
+    <t>být v (M) důchodu</t>
+  </si>
+  <si>
+    <t>(M) důchodce</t>
+  </si>
+  <si>
+    <t>pensioner (male)</t>
+  </si>
+  <si>
+    <t>(Ž) důchodkyně</t>
+  </si>
+  <si>
+    <t>pensioner (female)</t>
+  </si>
+  <si>
+    <t>(M) ekonomický</t>
+  </si>
+  <si>
+    <t>economic (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) ekonomická</t>
+  </si>
+  <si>
+    <t>(S) ekonomické</t>
+  </si>
+  <si>
+    <t>(M) expres</t>
+  </si>
+  <si>
+    <t>експрес</t>
+  </si>
+  <si>
+    <t>экспресс</t>
+  </si>
+  <si>
+    <t>(Ž) fakulta</t>
+  </si>
+  <si>
+    <t>faculty, (university) department</t>
+  </si>
+  <si>
+    <t>(M) filozofický</t>
+  </si>
+  <si>
+    <t>philosophical (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) filozofická</t>
+  </si>
+  <si>
+    <t>(S) filozofické</t>
+  </si>
+  <si>
+    <t>(S) gymnázium</t>
+  </si>
+  <si>
+    <t>grammar school, gymnasium</t>
+  </si>
+  <si>
+    <t>бракувати, не вистачати; сумувати (за кимось)</t>
+  </si>
+  <si>
+    <t>не хватать, отсутствовать; скучать (по)</t>
+  </si>
+  <si>
+    <t>to be missing, to lack; to miss (someone)</t>
+  </si>
+  <si>
+    <t>(M) inženýr</t>
+  </si>
+  <si>
+    <t>інженер (Ing.)</t>
+  </si>
+  <si>
+    <t>инженер (Ing.)</t>
+  </si>
+  <si>
+    <t>engineer (M, title Ing.)</t>
+  </si>
+  <si>
+    <t>(Ž) inženýrka</t>
+  </si>
+  <si>
+    <t>інженер (Ing.) (жінка)</t>
+  </si>
+  <si>
+    <t>инженер (Ing.) (женщина)</t>
+  </si>
+  <si>
+    <t>engineer (F, title Ing.)</t>
+  </si>
+  <si>
+    <t>як, в якості</t>
+  </si>
+  <si>
+    <t>как, в качестве</t>
+  </si>
+  <si>
+    <t>as, like</t>
+  </si>
+  <si>
+    <t>інакше</t>
+  </si>
+  <si>
+    <t>иначе, по-другому</t>
+  </si>
+  <si>
+    <t>otherwise, differently</t>
+  </si>
+  <si>
+    <t>(Ž) kabelka</t>
+  </si>
+  <si>
+    <t>жіноча сумочка</t>
+  </si>
+  <si>
+    <t>(дамская) сумочка</t>
+  </si>
+  <si>
+    <t>(Ž) katedra</t>
+  </si>
+  <si>
+    <t>(university) department</t>
+  </si>
+  <si>
+    <t>(S) kolo</t>
+  </si>
+  <si>
+    <t>велосипед; колесо; тур</t>
+  </si>
+  <si>
+    <t>bicycle, bike; wheel; round</t>
+  </si>
+  <si>
+    <t>(Ž) kontaktní adresa</t>
+  </si>
+  <si>
+    <t>авіапоштою, літаком</t>
+  </si>
+  <si>
+    <t>авиапочтой, самолётом</t>
+  </si>
+  <si>
+    <t>by airmail, by plane</t>
+  </si>
+  <si>
+    <t>(Ž) mateřská</t>
+  </si>
+  <si>
+    <t>декрет, декретна відпустка</t>
+  </si>
+  <si>
+    <t>декрет, декретный отпуск</t>
+  </si>
+  <si>
+    <t>maternity leave</t>
+  </si>
+  <si>
+    <t>být na (Ž) mateřské (dovolené)</t>
+  </si>
+  <si>
+    <t>бути в декреті</t>
+  </si>
+  <si>
+    <t>быть в декрете</t>
+  </si>
+  <si>
+    <t>(Ž) maturita</t>
+  </si>
+  <si>
+    <t>іспит на атестат зрілості, матура</t>
+  </si>
+  <si>
+    <t>экзамен на аттестат зрелости</t>
+  </si>
+  <si>
+    <t>school-leaving exam, A-levels</t>
+  </si>
+  <si>
+    <t>(Ž) medicína</t>
+  </si>
+  <si>
+    <t>медицина</t>
+  </si>
+  <si>
+    <t>měnit na (impf)</t>
+  </si>
+  <si>
+    <t>міняти на</t>
+  </si>
+  <si>
+    <t>менять на</t>
+  </si>
+  <si>
+    <t>to change (for), to exchange (for) (imperfective)</t>
+  </si>
+  <si>
+    <t>vyměnit na (pf)</t>
+  </si>
+  <si>
+    <t>обміняти на, поміняти на</t>
+  </si>
+  <si>
+    <t>обменять на, поменять на</t>
+  </si>
+  <si>
+    <t>to change (for), to exchange (for) (perfective)</t>
+  </si>
+  <si>
+    <t>(M) minulý</t>
+  </si>
+  <si>
+    <t>минулий</t>
+  </si>
+  <si>
+    <t>прошлый, минувший</t>
+  </si>
+  <si>
+    <t>last, past (male)</t>
+  </si>
+  <si>
+    <t>(Ž) minulá</t>
+  </si>
+  <si>
+    <t>минула</t>
+  </si>
+  <si>
+    <t>прошлая, минувшая</t>
+  </si>
+  <si>
+    <t>last, past (female)</t>
+  </si>
+  <si>
+    <t>(S) minulé</t>
+  </si>
+  <si>
+    <t>минуле</t>
+  </si>
+  <si>
+    <t>прошлое, минувшее</t>
+  </si>
+  <si>
+    <t>last, past (neuter)</t>
+  </si>
+  <si>
+    <t>(S) místo narození</t>
+  </si>
+  <si>
+    <t>мати</t>
+  </si>
+  <si>
+    <t>иметь</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>говорити про, розмовляти про</t>
+  </si>
+  <si>
+    <t>говорить о, разговаривать о</t>
+  </si>
+  <si>
+    <t>to talk about, to speak about</t>
+  </si>
+  <si>
+    <t>народитися</t>
+  </si>
+  <si>
+    <t>родиться</t>
+  </si>
+  <si>
+    <t>to be born</t>
+  </si>
+  <si>
+    <t>(S) narození</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>(Ž) nehoda</t>
+  </si>
+  <si>
+    <t>ДТП, аварія, нещасний випадок</t>
+  </si>
+  <si>
+    <t>ДТП, авария, несчастный случай</t>
+  </si>
+  <si>
+    <t>nechávat (impf)</t>
+  </si>
+  <si>
+    <t>залишати</t>
+  </si>
+  <si>
+    <t>оставлять</t>
+  </si>
+  <si>
+    <t>to leave (imperfective)</t>
+  </si>
+  <si>
+    <t>nechat (pf)</t>
+  </si>
+  <si>
+    <t>залишити</t>
+  </si>
+  <si>
+    <t>оставить</t>
+  </si>
+  <si>
+    <t>to leave (perfective)</t>
+  </si>
+  <si>
+    <t>спочатку, найперше</t>
+  </si>
+  <si>
+    <t>first (of all)</t>
+  </si>
+  <si>
+    <t>(M) neplatný</t>
+  </si>
+  <si>
+    <t>недійсний</t>
+  </si>
+  <si>
+    <t>недействительный</t>
+  </si>
+  <si>
+    <t>invalid, expired (male)</t>
+  </si>
+  <si>
+    <t>(Ž) neplatná</t>
+  </si>
+  <si>
+    <t>недійсна</t>
+  </si>
+  <si>
+    <t>недействительная</t>
+  </si>
+  <si>
+    <t>invalid, expired (female)</t>
+  </si>
+  <si>
+    <t>(S) neplatné</t>
+  </si>
+  <si>
+    <t>недійсне</t>
+  </si>
+  <si>
+    <t>недействительное</t>
+  </si>
+  <si>
+    <t>invalid, expired (neuter)</t>
+  </si>
+  <si>
+    <t>нести</t>
+  </si>
+  <si>
+    <t>to carry</t>
+  </si>
+  <si>
+    <t>я несу, несу</t>
+  </si>
+  <si>
+    <t>I carry, I am carrying</t>
+  </si>
+  <si>
+    <t>(M) nesl</t>
+  </si>
+  <si>
+    <t>він ніс, ніс</t>
+  </si>
+  <si>
+    <t>он нёс, нёс</t>
+  </si>
+  <si>
+    <t>(M) nezaměstnaný</t>
+  </si>
+  <si>
+    <t>(Ž) nezaměstnaná</t>
+  </si>
+  <si>
+    <t>(S) nezaměstnané</t>
+  </si>
+  <si>
+    <t>unemployed (neuter)</t>
+  </si>
+  <si>
+    <t>(M) oba</t>
+  </si>
+  <si>
+    <t>both (masculine)</t>
+  </si>
+  <si>
+    <t>(Ž/S) obě</t>
+  </si>
+  <si>
+    <t>обидві</t>
+  </si>
+  <si>
+    <t>both (feminine/neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) obálka</t>
+  </si>
+  <si>
+    <t>конверт</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>(Ž) občanka</t>
+  </si>
+  <si>
+    <t>паспорт (внутрішній), ID-картка (розм.)</t>
+  </si>
+  <si>
+    <t>паспорт (внутренний), ID-карта (разг.)</t>
+  </si>
+  <si>
+    <t>(M) občanský</t>
+  </si>
+  <si>
+    <t>civic, civil (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) občanská</t>
+  </si>
+  <si>
+    <t>(S) občanské</t>
+  </si>
+  <si>
+    <t>(M) občanský průkaz</t>
+  </si>
+  <si>
+    <t>паспорт (внутрішній), ID-картка, посвідчення особи</t>
+  </si>
+  <si>
+    <t>удостоверение личности, (внутренний) паспорт</t>
+  </si>
+  <si>
+    <t>ID card, national identity card</t>
+  </si>
+  <si>
+    <t>(Ž) obec</t>
+  </si>
+  <si>
+    <t>громада, муніципалітет, село</t>
+  </si>
+  <si>
+    <t>община, муниципалитет, населённый пункт</t>
+  </si>
+  <si>
+    <t>(M) obor</t>
+  </si>
+  <si>
+    <t>field (of study), branch</t>
+  </si>
+  <si>
+    <t>зазвичай</t>
+  </si>
+  <si>
+    <t>обычно</t>
+  </si>
+  <si>
+    <t>(M) odborný</t>
+  </si>
+  <si>
+    <t>фаховий, спеціальний</t>
+  </si>
+  <si>
+    <t>профессиональный, специальный</t>
+  </si>
+  <si>
+    <t>professional, expert (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) odborná</t>
+  </si>
+  <si>
+    <t>фахова, спеціальна</t>
+  </si>
+  <si>
+    <t>профессиональная, специальная</t>
+  </si>
+  <si>
+    <t>(S) odborné</t>
+  </si>
+  <si>
+    <t>фахове, спеціальне</t>
+  </si>
+  <si>
+    <t>профессиональное, специальное</t>
+  </si>
+  <si>
+    <t>(S) oddělení</t>
+  </si>
+  <si>
+    <t>відділ, відділення</t>
+  </si>
+  <si>
+    <t>отдел, отделение</t>
+  </si>
+  <si>
+    <t>department, ward</t>
+  </si>
+  <si>
+    <t>(Ž) odpověď</t>
+  </si>
+  <si>
+    <t>(M) omyl</t>
+  </si>
+  <si>
+    <t>помилка</t>
+  </si>
+  <si>
+    <t>mistake, error, misunderstanding</t>
+  </si>
+  <si>
+    <t>(Ž) otevírací doba</t>
+  </si>
+  <si>
+    <t>години роботи, робочий час</t>
+  </si>
+  <si>
+    <t>часы работы, время работы</t>
+  </si>
+  <si>
+    <t>opening hours, business hours</t>
+  </si>
+  <si>
+    <t>pamatovat si (impf)</t>
+  </si>
+  <si>
+    <t>пам'ятати</t>
+  </si>
+  <si>
+    <t>помнить</t>
+  </si>
+  <si>
+    <t>to remember (imperfective)</t>
+  </si>
+  <si>
+    <t>zapamatovat si (pf)</t>
+  </si>
+  <si>
+    <t>запам'ятати</t>
+  </si>
+  <si>
+    <t>запомнить</t>
+  </si>
+  <si>
+    <t>to memorize (perfective)</t>
+  </si>
+  <si>
+    <t>(M) papír</t>
+  </si>
+  <si>
+    <t>папір</t>
+  </si>
+  <si>
+    <t>бумага</t>
+  </si>
+  <si>
+    <t>(M) pas</t>
+  </si>
+  <si>
+    <t>закордонний паспорт</t>
+  </si>
+  <si>
+    <t>(загран)паспорт</t>
+  </si>
+  <si>
+    <t>(M) pedagogický</t>
+  </si>
+  <si>
+    <t>pedagogical, (teacher) training (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) pedagogická</t>
+  </si>
+  <si>
+    <t>pedagogical (adj)</t>
+  </si>
+  <si>
+    <t>(S) pedagogické</t>
+  </si>
+  <si>
+    <t>(Ž) peněženka</t>
+  </si>
+  <si>
+    <t>кошелёк, бумажник</t>
+  </si>
+  <si>
+    <t>(M) plat</t>
+  </si>
+  <si>
+    <t>salary, wage, pay</t>
+  </si>
+  <si>
+    <t>(M) platný</t>
+  </si>
+  <si>
+    <t>дійсний</t>
+  </si>
+  <si>
+    <t>действительный</t>
+  </si>
+  <si>
+    <t>(Ž) platná</t>
+  </si>
+  <si>
+    <t>дійсна</t>
+  </si>
+  <si>
+    <t>действительная</t>
+  </si>
+  <si>
+    <t>(S) platné</t>
+  </si>
+  <si>
+    <t>дійсне</t>
+  </si>
+  <si>
+    <t>действительное</t>
+  </si>
+  <si>
+    <t>valid (neuter)</t>
+  </si>
+  <si>
+    <t>(M) pobyt</t>
+  </si>
+  <si>
+    <t>Sign (it). (informal)</t>
+  </si>
+  <si>
+    <t>Sign (it). (formal)</t>
+  </si>
+  <si>
+    <t>підписати</t>
+  </si>
+  <si>
+    <t>подписать</t>
+  </si>
+  <si>
+    <t>to sign</t>
+  </si>
+  <si>
+    <t>(M) podobný</t>
+  </si>
+  <si>
+    <t>схожий, подібний</t>
+  </si>
+  <si>
+    <t>похожий, подобный</t>
+  </si>
+  <si>
+    <t>similar (male)</t>
+  </si>
+  <si>
+    <t>(Ž) podobná</t>
+  </si>
+  <si>
+    <t>схожа, подібна</t>
+  </si>
+  <si>
+    <t>похожая, подобная</t>
+  </si>
+  <si>
+    <t>similar (female)</t>
+  </si>
+  <si>
+    <t>(S) podobné</t>
+  </si>
+  <si>
+    <t>схоже, подібне</t>
+  </si>
+  <si>
+    <t>похожее, подобное</t>
+  </si>
+  <si>
+    <t>similar (neuter)</t>
+  </si>
+  <si>
+    <t>(M) podpis</t>
+  </si>
+  <si>
+    <t>(S) pojištění</t>
+  </si>
+  <si>
+    <t>страхування, страховка</t>
+  </si>
+  <si>
+    <t>страхование, страховка</t>
+  </si>
+  <si>
+    <t>(M) pojištěný</t>
+  </si>
+  <si>
+    <t>(Ž) pojištěná</t>
+  </si>
+  <si>
+    <t>(S) pojištěné</t>
+  </si>
+  <si>
+    <t>insured (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) pokuta</t>
+  </si>
+  <si>
+    <t>(Ž) policejní stanice</t>
+  </si>
+  <si>
+    <t>відділок поліції</t>
+  </si>
+  <si>
+    <t>полицейский участок</t>
+  </si>
+  <si>
+    <t>(M) policista</t>
+  </si>
+  <si>
+    <t>police officer (male)</t>
+  </si>
+  <si>
+    <t>(Ž) policistka</t>
+  </si>
+  <si>
+    <t>полицейский (женщина)</t>
+  </si>
+  <si>
+    <t>police officer (female)</t>
+  </si>
+  <si>
+    <t>posílat (impf)</t>
+  </si>
+  <si>
+    <t>посилати, відправляти</t>
+  </si>
+  <si>
+    <t>посылать, отправлять</t>
+  </si>
+  <si>
+    <t>to send (imperfective)</t>
+  </si>
+  <si>
+    <t>poslat (pf)</t>
+  </si>
+  <si>
+    <t>послати, відправити</t>
+  </si>
+  <si>
+    <t>послать, отправить</t>
+  </si>
+  <si>
+    <t>to send (perfective)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) poslední</t>
+  </si>
+  <si>
+    <t>останній, -я, -є</t>
+  </si>
+  <si>
+    <t>последний, -яя, -ее</t>
+  </si>
+  <si>
+    <t>(M) pošťák</t>
+  </si>
+  <si>
+    <t>листоноша (чоловік)</t>
+  </si>
+  <si>
+    <t>почтальон (мужчина)</t>
+  </si>
+  <si>
+    <t>postman</t>
+  </si>
+  <si>
+    <t>(Ž) pošťačka</t>
+  </si>
+  <si>
+    <t>листоноша (жінка)</t>
+  </si>
+  <si>
+    <t>почтальон (женщина)</t>
+  </si>
+  <si>
+    <t>postwoman</t>
+  </si>
+  <si>
+    <t>(Ž) poštovní schránka</t>
+  </si>
+  <si>
+    <t>mailbox, postbox</t>
+  </si>
+  <si>
+    <t>розмовляти про, балакати про</t>
+  </si>
+  <si>
+    <t>разговаривать о, болтать о</t>
+  </si>
+  <si>
+    <t>to chat about, to talk about</t>
+  </si>
+  <si>
+    <t>позже, позднее</t>
+  </si>
+  <si>
+    <t>(Ž) profese</t>
+  </si>
+  <si>
+    <t>професія</t>
+  </si>
+  <si>
+    <t>профессия</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>(M) projekt</t>
+  </si>
+  <si>
+    <t>(Ž) promoce</t>
+  </si>
+  <si>
+    <t>випускний (в університеті), вручення дипломів</t>
+  </si>
+  <si>
+    <t>выпуск (в вузе), вручение дипломов</t>
+  </si>
+  <si>
+    <t>graduation ceremony</t>
+  </si>
+  <si>
+    <t>(M) průkaz</t>
+  </si>
+  <si>
+    <t>посвідчення</t>
+  </si>
+  <si>
+    <t>удостоверение, пропуск</t>
+  </si>
+  <si>
+    <t>ID card, pass</t>
+  </si>
+  <si>
+    <t>before (that), previously</t>
+  </si>
+  <si>
+    <t>думати про, роздумувати про</t>
+  </si>
+  <si>
+    <t>думать о, размышлять о</t>
+  </si>
+  <si>
+    <t>to think about</t>
+  </si>
+  <si>
+    <t>(Ž) přestávka</t>
+  </si>
+  <si>
+    <t>перерва</t>
+  </si>
+  <si>
+    <t>перерыв, перемена</t>
+  </si>
+  <si>
+    <t>break, pause</t>
+  </si>
+  <si>
+    <t>(M) příběh</t>
+  </si>
+  <si>
+    <t>історія, розповідь</t>
+  </si>
+  <si>
+    <t>история, рассказ</t>
+  </si>
+  <si>
+    <t>story, tale</t>
+  </si>
+  <si>
+    <t>(Ž) přihláška</t>
+  </si>
+  <si>
+    <t>заява, анкета (на вступ)</t>
+  </si>
+  <si>
+    <t>заявление, заявка (на поступление)</t>
+  </si>
+  <si>
+    <t>application (form)</t>
+  </si>
+  <si>
+    <t>(S) přízemí</t>
+  </si>
+  <si>
+    <t>первый этаж, цокольный этаж</t>
+  </si>
+  <si>
+    <t>ground floor</t>
+  </si>
+  <si>
+    <t>(S) PSČ (Poštovní směrovací číslo)</t>
+  </si>
+  <si>
+    <t>postcode, zip code</t>
+  </si>
+  <si>
+    <t>(Ž) půlnoc</t>
+  </si>
+  <si>
+    <t>північ (00:00)</t>
+  </si>
+  <si>
+    <t>o (Ž) půlnoci</t>
+  </si>
+  <si>
+    <t>(S) rádio</t>
+  </si>
+  <si>
+    <t>радіо</t>
+  </si>
+  <si>
+    <t>радио</t>
+  </si>
+  <si>
+    <t>(M) studijní referent</t>
+  </si>
+  <si>
+    <t>інспектор деканату (чоловік)</t>
+  </si>
+  <si>
+    <t>инспектор деканата, референт (мужчина)</t>
+  </si>
+  <si>
+    <t>(Ž) studijní referentka</t>
+  </si>
+  <si>
+    <t>інспектор деканату (жінка)</t>
+  </si>
+  <si>
+    <t>инспектор деканата, референт (женщина)</t>
+  </si>
+  <si>
+    <t>(S) rodné číslo</t>
+  </si>
+  <si>
+    <t>ідентифікаційний номер (прибл.)</t>
+  </si>
+  <si>
+    <t>идентификационный номер (прибл.)</t>
+  </si>
+  <si>
+    <t>birth number (Czech national ID number)</t>
+  </si>
+  <si>
+    <t>(S) rodné příjmení</t>
+  </si>
+  <si>
+    <t>прізвище при народженні, дівоче прізвище</t>
+  </si>
+  <si>
+    <t>фамилия при рождении, девичья фамилия</t>
+  </si>
+  <si>
+    <t>birth name, maiden name</t>
+  </si>
+  <si>
+    <t>(M) rok</t>
+  </si>
+  <si>
+    <t>розміняти (гроші)</t>
+  </si>
+  <si>
+    <t>разменять (деньги)</t>
+  </si>
+  <si>
+    <t>to break, to change (money)</t>
+  </si>
+  <si>
+    <t>швидко</t>
+  </si>
+  <si>
+    <t>быстро</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) řidičský</t>
+  </si>
+  <si>
+    <t>водійський, -а, -е</t>
+  </si>
+  <si>
+    <t>водительский, -ая, -ое</t>
+  </si>
+  <si>
+    <t>driver's, driving (adj)</t>
+  </si>
+  <si>
+    <t>(M) řidičský průkaz</t>
+  </si>
+  <si>
+    <t>водійське посвідчення, права</t>
+  </si>
+  <si>
+    <t>водительское удостоверение, права</t>
+  </si>
+  <si>
+    <t>driver's license</t>
+  </si>
+  <si>
+    <t>керувати (автомобілем), управляти</t>
+  </si>
+  <si>
+    <t>водить (машину), управлять</t>
+  </si>
+  <si>
+    <t>to drive, to manage, to direct</t>
+  </si>
+  <si>
+    <t>here (direction)</t>
+  </si>
+  <si>
+    <t>(M) semestr</t>
+  </si>
+  <si>
+    <t>семестр</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>(S) slovo</t>
+  </si>
+  <si>
+    <t>чути про</t>
+  </si>
+  <si>
+    <t>слышать о</t>
+  </si>
+  <si>
+    <t>to hear about</t>
+  </si>
+  <si>
+    <t>(Ž) směnárna</t>
+  </si>
+  <si>
+    <t>обмін валют, обмінник</t>
+  </si>
+  <si>
+    <t>обмен валют, обменный пункт</t>
+  </si>
+  <si>
+    <t>currency exchange, bureau de change</t>
+  </si>
+  <si>
+    <t>могти, мати дозвіл</t>
+  </si>
+  <si>
+    <t>мочь, иметь разрешение</t>
+  </si>
+  <si>
+    <t>(Ž) smlouva</t>
+  </si>
+  <si>
+    <t>договір, контракт</t>
+  </si>
+  <si>
+    <t>договор, контракт</t>
+  </si>
+  <si>
+    <t>contract, treaty</t>
+  </si>
+  <si>
+    <t>(Ž) socha</t>
+  </si>
+  <si>
+    <t>статуя</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>(Ž) specializace</t>
+  </si>
+  <si>
+    <t>(Ž) SŠ (střední škola)</t>
+  </si>
+  <si>
+    <t>середня школа (технікум, коледж)</t>
+  </si>
+  <si>
+    <t>средняя школа (техникум, колледж)</t>
+  </si>
+  <si>
+    <t>secondary school, high school</t>
+  </si>
+  <si>
+    <t>(Ž) státní zkouška</t>
+  </si>
+  <si>
+    <t>государственный экзамен, госэкзамен</t>
+  </si>
+  <si>
+    <t>(Ž) státnice</t>
+  </si>
+  <si>
+    <t>держіспит (розм.)</t>
+  </si>
+  <si>
+    <t>(Ž) stáž</t>
+  </si>
+  <si>
+    <t>стажування</t>
+  </si>
+  <si>
+    <t>стажировка</t>
+  </si>
+  <si>
+    <t>internship, placement</t>
+  </si>
+  <si>
+    <t>однаково, все одно</t>
+  </si>
+  <si>
+    <t>одинаково, всё равно</t>
+  </si>
+  <si>
+    <t>(the) same, anyway</t>
+  </si>
+  <si>
+    <t>(M) stejný</t>
+  </si>
+  <si>
+    <t>(Ž) stejná</t>
+  </si>
+  <si>
+    <t>(S) stejné</t>
+  </si>
+  <si>
+    <t>same, identical (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) stránka</t>
+  </si>
+  <si>
+    <t>сторінка; сторона</t>
+  </si>
+  <si>
+    <t>страница; сторона</t>
+  </si>
+  <si>
+    <t>page; side</t>
+  </si>
+  <si>
+    <t>(Ž) střední škola (SŠ)</t>
+  </si>
+  <si>
+    <t>(M) středoškolský</t>
+  </si>
+  <si>
+    <t>(для) середньої школи, (зі) середньої школи</t>
+  </si>
+  <si>
+    <t>(для) средней школы</t>
+  </si>
+  <si>
+    <t>secondary school (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) středoškolská</t>
+  </si>
+  <si>
+    <t>(S) středoškolské</t>
+  </si>
+  <si>
+    <t>(M) studentský</t>
+  </si>
+  <si>
+    <t>student's (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) studentská</t>
+  </si>
+  <si>
+    <t>(S) studentské</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) studijní</t>
+  </si>
+  <si>
+    <t>навчальний, -а, -е</t>
+  </si>
+  <si>
+    <t>учебный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>study (adj), academic</t>
+  </si>
+  <si>
+    <t>(S) studijní oddělení</t>
+  </si>
+  <si>
+    <t>деканат, навчальний відділ</t>
+  </si>
+  <si>
+    <t>деканат, учебный отдел</t>
+  </si>
+  <si>
+    <t>studies department, registrar's office</t>
+  </si>
+  <si>
+    <t>(S) studium</t>
+  </si>
+  <si>
+    <t>навчання (в університеті)</t>
+  </si>
+  <si>
+    <t>учёба (в вузе)</t>
+  </si>
+  <si>
+    <t>(M) takový</t>
+  </si>
+  <si>
+    <t>such, so, like this (male)</t>
+  </si>
+  <si>
+    <t>(Ž) taková</t>
+  </si>
+  <si>
+    <t>such, so, like this (female)</t>
+  </si>
+  <si>
+    <t>(S) takové</t>
+  </si>
+  <si>
+    <t>such, so, like this (neuter)</t>
+  </si>
+  <si>
+    <t>(M) technický</t>
+  </si>
+  <si>
+    <t>technical (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) technická</t>
+  </si>
+  <si>
+    <t>(S) technické</t>
+  </si>
+  <si>
+    <t>(Ž) technika</t>
+  </si>
+  <si>
+    <t>(M) text</t>
+  </si>
+  <si>
+    <t>(M) titul</t>
+  </si>
+  <si>
+    <t>(M) účet</t>
+  </si>
+  <si>
+    <t>рахунок</t>
+  </si>
+  <si>
+    <t>счёт</t>
+  </si>
+  <si>
+    <t>(M) (bankovní) účet</t>
+  </si>
+  <si>
+    <t>(банковский) счёт</t>
+  </si>
+  <si>
+    <t>вміти</t>
+  </si>
+  <si>
+    <t>уметь</t>
+  </si>
+  <si>
+    <t>to know how to, can</t>
+  </si>
+  <si>
+    <t>(Pl) úřední hodiny</t>
+  </si>
+  <si>
+    <t>прийомні години, години роботи</t>
+  </si>
+  <si>
+    <t>приёмные часы, часы работы</t>
+  </si>
+  <si>
+    <t>(M) úředník</t>
+  </si>
+  <si>
+    <t>чиновник, держслужбовець</t>
+  </si>
+  <si>
+    <t>чиновник, госслужащий</t>
+  </si>
+  <si>
+    <t>(Ž) úřednice</t>
+  </si>
+  <si>
+    <t>чиновниця, держслужбовиця</t>
+  </si>
+  <si>
+    <t>чиновница, госслужащая</t>
+  </si>
+  <si>
+    <t>(Ž) věc</t>
+  </si>
+  <si>
+    <t>річ, справа</t>
+  </si>
+  <si>
+    <t>вещь, дело</t>
+  </si>
+  <si>
+    <t>thing, matter, item</t>
+  </si>
+  <si>
+    <t>дуже</t>
+  </si>
+  <si>
+    <t>очень</t>
+  </si>
+  <si>
+    <t>(S) vízum</t>
+  </si>
+  <si>
+    <t>(Ž) VŠ (vysoká škola)</t>
+  </si>
+  <si>
+    <t>ВНЗ, університет, виш</t>
+  </si>
+  <si>
+    <t>вуз, университет</t>
+  </si>
+  <si>
+    <t>vybírat (impf)</t>
+  </si>
+  <si>
+    <t>вибирати</t>
+  </si>
+  <si>
+    <t>выбирать</t>
+  </si>
+  <si>
+    <t>to choose, to select, to withdraw</t>
+  </si>
+  <si>
+    <t>vybrat (pf)</t>
+  </si>
+  <si>
+    <t>вибрати</t>
+  </si>
+  <si>
+    <t>выбрать</t>
+  </si>
+  <si>
+    <t>vyplňovat (impf)</t>
+  </si>
+  <si>
+    <t>заповнювати</t>
+  </si>
+  <si>
+    <t>заполнять</t>
+  </si>
+  <si>
+    <t>to fill in, to fill out (imperfective)</t>
+  </si>
+  <si>
+    <t>vyplnit (pf)</t>
+  </si>
+  <si>
+    <t>заповнити</t>
+  </si>
+  <si>
+    <t>заполнить</t>
+  </si>
+  <si>
+    <t>to fill in, to fill out (perfective)</t>
+  </si>
+  <si>
+    <t>(Ž) vysoká škola (VŠ)</t>
+  </si>
+  <si>
+    <t>ВНЗ, університет, вища школа</t>
+  </si>
+  <si>
+    <t>вуз, университет, высшая школа</t>
+  </si>
+  <si>
+    <t>(M) vysokoškolský</t>
+  </si>
+  <si>
+    <t>(для) ВНЗ, (з) ВНЗ</t>
+  </si>
+  <si>
+    <t>вузовский</t>
+  </si>
+  <si>
+    <t>university (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) vysokoškolská</t>
+  </si>
+  <si>
+    <t>вузовская</t>
+  </si>
+  <si>
+    <t>(S) vysokoškolské</t>
+  </si>
+  <si>
+    <t>вузовское</t>
+  </si>
+  <si>
+    <t>закінчити (ВНЗ), здобути освіту</t>
+  </si>
+  <si>
+    <t>окончить (вуз), получить образование</t>
+  </si>
+  <si>
+    <t>to graduate (from university)</t>
+  </si>
+  <si>
+    <t>(S) vzdělání</t>
+  </si>
+  <si>
+    <t>(M) vzkaz</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>(M) web</t>
+  </si>
+  <si>
+    <t>веб, веб-сайт</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) webový</t>
+  </si>
+  <si>
+    <t>веб-, веб- (прикм.)</t>
+  </si>
+  <si>
+    <t>веб-, веб- (прил.)</t>
+  </si>
+  <si>
+    <t>web (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) webová stránka</t>
+  </si>
+  <si>
+    <t>веб-сторінка, сайт</t>
+  </si>
+  <si>
+    <t>web page, website</t>
+  </si>
+  <si>
+    <t>(Ž) www stránka</t>
+  </si>
+  <si>
+    <t>www-сторінка, сайт</t>
+  </si>
+  <si>
+    <t>www-страница, сайт</t>
+  </si>
+  <si>
+    <t>www page, website</t>
+  </si>
+  <si>
+    <t>(S) zahraničí</t>
+  </si>
+  <si>
+    <t>закордон</t>
+  </si>
+  <si>
+    <t>заграница</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) zahraniční</t>
+  </si>
+  <si>
+    <t>закордонний, іноземний, -а, -е</t>
+  </si>
+  <si>
+    <t>заграничный, иностранный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>(Ž) základní škola (ZŠ)</t>
+  </si>
+  <si>
+    <t>початкова/базова школа (1-9 класи)</t>
+  </si>
+  <si>
+    <t>начальная/базовая школа</t>
+  </si>
+  <si>
+    <t>primary/elementary/basic school</t>
+  </si>
+  <si>
+    <t>(S) základní vzdělání</t>
+  </si>
+  <si>
+    <t>базова освіта</t>
+  </si>
+  <si>
+    <t>базовое образование</t>
+  </si>
+  <si>
+    <t>basic education</t>
+  </si>
+  <si>
+    <t>залежати (від)</t>
+  </si>
+  <si>
+    <t>зависеть (от)</t>
+  </si>
+  <si>
+    <t>to depend (on)</t>
+  </si>
+  <si>
+    <t>To záleží na…</t>
+  </si>
+  <si>
+    <t>Це залежить від...</t>
+  </si>
+  <si>
+    <t>Это зависит от...</t>
+  </si>
+  <si>
+    <t>That depends on...</t>
+  </si>
+  <si>
+    <t>(S) zaměstnání</t>
+  </si>
+  <si>
+    <t>робота, працевлаштування</t>
+  </si>
+  <si>
+    <t>работа, место работы</t>
+  </si>
+  <si>
+    <t>employment, job, occupation</t>
+  </si>
+  <si>
+    <t>(M) zaměstnavatel</t>
+  </si>
+  <si>
+    <t>(Ž) zaměstnavatelka</t>
+  </si>
+  <si>
+    <t>роботодавець (жінка)</t>
+  </si>
+  <si>
+    <t>работодатель (женщина)</t>
+  </si>
+  <si>
+    <t>знову</t>
+  </si>
+  <si>
+    <t>опять, снова</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>zemřít (pf)</t>
+  </si>
+  <si>
+    <t>померти</t>
+  </si>
+  <si>
+    <t>умереть</t>
+  </si>
+  <si>
+    <t>to die (perfective)</t>
+  </si>
+  <si>
+    <t>я помру, помру</t>
+  </si>
+  <si>
+    <t>я умру, умру</t>
+  </si>
+  <si>
+    <t>(M) zemřel</t>
+  </si>
+  <si>
+    <t>він помер, помер</t>
+  </si>
+  <si>
+    <t>он умер, умер</t>
+  </si>
+  <si>
+    <t>(Ž) známka</t>
+  </si>
+  <si>
+    <t>оцінка; марка (поштова)</t>
+  </si>
+  <si>
+    <t>оценка; марка (почтовая)</t>
+  </si>
+  <si>
+    <t>mark, grade; stamp</t>
+  </si>
+  <si>
+    <t>снова, заново</t>
+  </si>
+  <si>
+    <t>again, anew</t>
+  </si>
+  <si>
+    <t>скасувати, анулювати</t>
+  </si>
+  <si>
+    <t>отменить, аннулировать</t>
+  </si>
+  <si>
+    <t>to cancel</t>
+  </si>
+  <si>
+    <t>(Ž) ZŠ (základní škola)</t>
+  </si>
+  <si>
+    <t>початкова/базова школа</t>
+  </si>
+  <si>
+    <t>primary/elementary school</t>
+  </si>
+  <si>
+    <t>загубити, втратити</t>
+  </si>
+  <si>
+    <t>потерять</t>
+  </si>
+  <si>
+    <t>to lose</t>
+  </si>
+  <si>
+    <t>zůstávat (impf)</t>
+  </si>
+  <si>
+    <t>залишатися</t>
+  </si>
+  <si>
+    <t>оставаться</t>
+  </si>
+  <si>
+    <t>to stay, to remain (imperfective)</t>
+  </si>
+  <si>
+    <t>zůstat (pf)</t>
+  </si>
+  <si>
+    <t>залишитися</t>
+  </si>
+  <si>
+    <t>остаться</t>
+  </si>
+  <si>
+    <t>to stay, to remain (perfective)</t>
   </si>
 </sst>
 </file>
@@ -3125,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,3346 +3134,3346 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>155</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>172</v>
+        <v>320</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>176</v>
+        <v>324</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>193</v>
+        <v>338</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>196</v>
+        <v>43</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>215</v>
+        <v>348</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>222</v>
+        <v>58</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>225</v>
+        <v>60</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>225</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>225</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>235</v>
+        <v>359</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>243</v>
+        <v>365</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>247</v>
+        <v>371</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>249</v>
+        <v>372</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>23</v>
+        <v>380</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>258</v>
+        <v>383</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>260</v>
+        <v>384</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>266</v>
+        <v>387</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>28</v>
+        <v>400</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>278</v>
+        <v>401</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>29</v>
+        <v>410</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>291</v>
+        <v>412</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>293</v>
+        <v>415</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>295</v>
+        <v>418</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>291</v>
+        <v>421</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>304</v>
+        <v>424</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>317</v>
+        <v>84</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>321</v>
+        <v>437</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>322</v>
+        <v>438</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>325</v>
+        <v>441</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>326</v>
+        <v>442</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>327</v>
+        <v>443</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>328</v>
+        <v>444</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>329</v>
+        <v>86</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>35</v>
+        <v>447</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>335</v>
+        <v>449</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>337</v>
+        <v>451</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>338</v>
+        <v>452</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>339</v>
+        <v>453</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>340</v>
+        <v>454</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>341</v>
+        <v>455</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>342</v>
+        <v>456</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>344</v>
+        <v>458</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>346</v>
+        <v>459</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>346</v>
+        <v>459</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>348</v>
+        <v>90</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>350</v>
+        <v>461</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>351</v>
+        <v>463</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>353</v>
+        <v>465</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>36</v>
+        <v>466</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>355</v>
+        <v>92</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>356</v>
+        <v>93</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>359</v>
+        <v>95</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>360</v>
+        <v>96</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>361</v>
+        <v>97</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>364</v>
+        <v>99</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>365</v>
+        <v>469</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>367</v>
+        <v>100</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>376</v>
+        <v>477</v>
       </c>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>38</v>
+        <v>478</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>379</v>
+        <v>103</v>
       </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>381</v>
+        <v>104</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>383</v>
+        <v>105</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>384</v>
+        <v>483</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>387</v>
+        <v>107</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>389</v>
+        <v>108</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>391</v>
+        <v>109</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>402</v>
+        <v>493</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>405</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>408</v>
+        <v>499</v>
       </c>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>410</v>
+        <v>501</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>411</v>
+        <v>502</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>408</v>
+        <v>499</v>
       </c>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>412</v>
+        <v>503</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>414</v>
+        <v>505</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>408</v>
+        <v>499</v>
       </c>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>42</v>
+        <v>506</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>419</v>
+        <v>114</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>420</v>
+        <v>115</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>421</v>
+        <v>116</v>
       </c>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>422</v>
+        <v>512</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>44</v>
+        <v>514</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>424</v>
+        <v>515</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>426</v>
+        <v>516</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>427</v>
+        <v>518</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>428</v>
+        <v>519</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>429</v>
+        <v>520</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>434</v>
+        <v>525</v>
       </c>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>45</v>
+        <v>526</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>437</v>
+        <v>118</v>
       </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>46</v>
+        <v>529</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>439</v>
+        <v>119</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>47</v>
+        <v>532</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>442</v>
+        <v>121</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>444</v>
+        <v>122</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>442</v>
+        <v>123</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>535</v>
       </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>447</v>
+        <v>124</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>442</v>
+        <v>125</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>535</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>48</v>
+        <v>537</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>449</v>
+        <v>126</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>451</v>
+        <v>127</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>49</v>
+        <v>539</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>452</v>
+        <v>128</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>454</v>
+        <v>129</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>50</v>
+        <v>541</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>455</v>
+        <v>542</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>456</v>
+        <v>543</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>461</v>
+        <v>131</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>462</v>
+        <v>547</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>465</v>
+        <v>550</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>51</v>
+        <v>551</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>469</v>
+        <v>135</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>470</v>
+        <v>136</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>472</v>
+        <v>137</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>473</v>
+        <v>138</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>475</v>
+        <v>140</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>477</v>
+        <v>141</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>52</v>
+        <v>557</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>481</v>
+        <v>558</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>483</v>
+        <v>559</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>560</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>487</v>
+        <v>563</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>491</v>
+        <v>567</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>568</v>
       </c>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>53</v>
+        <v>569</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>494</v>
+        <v>144</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>54</v>
+        <v>570</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>497</v>
+        <v>145</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>55</v>
+        <v>573</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>498</v>
+        <v>146</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>499</v>
+        <v>147</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>500</v>
+        <v>148</v>
       </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>502</v>
+        <v>149</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>503</v>
+        <v>150</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>504</v>
+        <v>151</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>506</v>
+        <v>152</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>507</v>
+        <v>153</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>56</v>
+        <v>577</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>509</v>
+        <v>154</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>509</v>
+        <v>154</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>510</v>
+        <v>155</v>
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>57</v>
+        <v>578</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>513</v>
+        <v>156</v>
       </c>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>515</v>
+        <v>157</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>517</v>
+        <v>158</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>582</v>
       </c>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>519</v>
+        <v>159</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>521</v>
+        <v>584</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>585</v>
       </c>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>58</v>
+        <v>594</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>532</v>
+        <v>160</v>
       </c>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>536</v>
+        <v>599</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>539</v>
+        <v>603</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>604</v>
       </c>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>59</v>
+        <v>605</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>540</v>
+        <v>161</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>541</v>
+        <v>162</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>543</v>
+        <v>163</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>547</v>
+        <v>164</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>549</v>
+        <v>165</v>
       </c>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>553</v>
+        <v>613</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>614</v>
       </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>61</v>
+        <v>615</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>554</v>
+        <v>166</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>555</v>
+        <v>166</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>556</v>
+        <v>167</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>62</v>
+        <v>620</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>561</v>
+        <v>621</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>563</v>
+        <v>622</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>564</v>
+        <v>168</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>565</v>
+        <v>169</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>567</v>
+        <v>170</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>570</v>
+        <v>626</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>64</v>
+        <v>628</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>573</v>
+        <v>630</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>631</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>65</v>
+        <v>632</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>576</v>
+        <v>634</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>66</v>
+        <v>636</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>67</v>
+        <v>640</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>580</v>
+        <v>171</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>582</v>
+        <v>641</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>68</v>
+        <v>643</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>583</v>
+        <v>172</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>584</v>
+        <v>173</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>585</v>
+        <v>644</v>
       </c>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>587</v>
+        <v>646</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>588</v>
+        <v>174</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>589</v>
+        <v>175</v>
       </c>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>591</v>
+        <v>176</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>592</v>
+        <v>177</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>593</v>
+        <v>178</v>
       </c>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>69</v>
+        <v>648</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>594</v>
+        <v>649</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>595</v>
+        <v>650</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>596</v>
+        <v>179</v>
       </c>
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>603</v>
+        <v>181</v>
       </c>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>70</v>
+        <v>657</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>71</v>
+        <v>661</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>72</v>
+        <v>665</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>610</v>
+        <v>182</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>611</v>
+        <v>183</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>612</v>
+        <v>184</v>
       </c>
       <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>613</v>
+        <v>185</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>619</v>
+        <v>186</v>
       </c>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>623</v>
+        <v>673</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>674</v>
       </c>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>627</v>
+        <v>677</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>628</v>
+        <v>187</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>632</v>
+        <v>188</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>634</v>
+        <v>189</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>682</v>
       </c>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>75</v>
+        <v>683</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="E159" s="4"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>59</v>
+        <v>605</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>540</v>
+        <v>161</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>541</v>
+        <v>162</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>76</v>
+        <v>686</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>638</v>
+        <v>190</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>638</v>
+        <v>190</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>639</v>
+        <v>191</v>
       </c>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>640</v>
+        <v>192</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>643</v>
+        <v>688</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>77</v>
+        <v>690</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>644</v>
+        <v>691</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>647</v>
+        <v>193</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>650</v>
+        <v>194</v>
       </c>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>78</v>
+        <v>696</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>653</v>
+        <v>698</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>657</v>
+        <v>195</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>658</v>
+        <v>196</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>659</v>
+        <v>197</v>
       </c>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>80</v>
+        <v>704</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>664</v>
+        <v>198</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>666</v>
+        <v>199</v>
       </c>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>669</v>
+        <v>200</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>670</v>
+        <v>201</v>
       </c>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>671</v>
+        <v>712</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>672</v>
+        <v>713</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>675</v>
+        <v>716</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>676</v>
+        <v>717</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>677</v>
+        <v>718</v>
       </c>
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>82</v>
+        <v>719</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>678</v>
+        <v>202</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>679</v>
+        <v>203</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>680</v>
+        <v>204</v>
       </c>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>682</v>
+        <v>205</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>683</v>
+        <v>206</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>684</v>
+        <v>207</v>
       </c>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>686</v>
+        <v>208</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>687</v>
+        <v>209</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="E175" s="4"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>83</v>
+        <v>723</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="E176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>84</v>
+        <v>727</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>85</v>
+        <v>728</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>86</v>
+        <v>734</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>702</v>
+        <v>210</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>703</v>
+        <v>211</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>706</v>
+        <v>212</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>707</v>
+        <v>213</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>709</v>
+        <v>214</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>710</v>
+        <v>215</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>87</v>
+        <v>738</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>88</v>
+        <v>742</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="E186" s="4"/>
     </row>
     <row r="187" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>603</v>
+        <v>181</v>
       </c>
       <c r="E187" s="4"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>720</v>
+        <v>216</v>
       </c>
       <c r="E188" s="4"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>89</v>
+        <v>749</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>721</v>
+        <v>217</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>723</v>
+        <v>218</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>89</v>
+        <v>751</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>724</v>
+        <v>219</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>723</v>
+        <v>220</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>89</v>
+        <v>753</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>726</v>
+        <v>221</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>723</v>
+        <v>222</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="E191" s="4"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>90</v>
+        <v>755</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>728</v>
+        <v>223</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>729</v>
+        <v>224</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="E192" s="4"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>732</v>
+        <v>225</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>733</v>
+        <v>226</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>735</v>
+        <v>227</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>736</v>
+        <v>228</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>91</v>
+        <v>759</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>737</v>
+        <v>229</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>738</v>
+        <v>230</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>739</v>
+        <v>231</v>
       </c>
       <c r="E195" s="4"/>
     </row>
     <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>92</v>
+        <v>760</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>740</v>
+        <v>232</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>740</v>
+        <v>232</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>93</v>
+        <v>761</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>741</v>
+        <v>233</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>742</v>
+        <v>234</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>743</v>
+        <v>235</v>
       </c>
       <c r="E197" s="4"/>
     </row>
     <row r="198" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="E198" s="4"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>746</v>
+        <v>236</v>
       </c>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>748</v>
+        <v>237</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>750</v>
+        <v>238</v>
       </c>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>751</v>
+        <v>239</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>758</v>
+        <v>240</v>
       </c>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>762</v>
+        <v>241</v>
       </c>
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>766</v>
+        <v>242</v>
       </c>
       <c r="E204" s="4"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>767</v>
+        <v>243</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>768</v>
+        <v>244</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>769</v>
+        <v>245</v>
       </c>
       <c r="E205" s="4"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>776</v>
+        <v>246</v>
       </c>
       <c r="E207" s="4"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>778</v>
+        <v>247</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>779</v>
+        <v>248</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>780</v>
+        <v>249</v>
       </c>
       <c r="E208" s="4"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>97</v>
+        <v>786</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>783</v>
+        <v>250</v>
       </c>
       <c r="E209" s="4"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E211" s="4"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="E212" s="4"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>799</v>
+        <v>802</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>803</v>
       </c>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>98</v>
+        <v>804</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>99</v>
+        <v>807</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>803</v>
+        <v>809</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>810</v>
       </c>
       <c r="E217" s="4"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>803</v>
+        <v>812</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>810</v>
       </c>
       <c r="E218" s="4"/>
     </row>
     <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>808</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>803</v>
+        <v>814</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>810</v>
       </c>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>810</v>
+        <v>251</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>100</v>
+        <v>818</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>814</v>
+        <v>252</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>815</v>
+        <v>253</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>816</v>
+        <v>254</v>
       </c>
       <c r="E221" s="4"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>101</v>
+        <v>819</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>817</v>
+        <v>255</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>818</v>
+        <v>256</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>102</v>
+        <v>821</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>822</v>
+        <v>257</v>
       </c>
       <c r="E223" s="4"/>
     </row>
@@ -6506,355 +6500,355 @@
         <v>828</v>
       </c>
       <c r="C225" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>103</v>
+        <v>830</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>104</v>
+        <v>834</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>833</v>
+        <v>259</v>
       </c>
       <c r="E227" s="4"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>105</v>
+        <v>837</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>836</v>
+        <v>839</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>106</v>
+        <v>841</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>107</v>
+        <v>845</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>842</v>
+        <v>847</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="E230" s="4"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>843</v>
+        <v>260</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E231" s="4"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>108</v>
+        <v>856</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>853</v>
+        <v>858</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>859</v>
       </c>
       <c r="E233" s="4"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>855</v>
+        <v>261</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>856</v>
+        <v>262</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>857</v>
+        <v>263</v>
       </c>
       <c r="E234" s="4"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>860</v>
+        <v>264</v>
       </c>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>434</v>
+        <v>525</v>
       </c>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>427</v>
+        <v>518</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>428</v>
+        <v>519</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>429</v>
+        <v>520</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="E237" s="4"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>863</v>
+        <v>865</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>866</v>
       </c>
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>867</v>
+        <v>869</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>870</v>
       </c>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>868</v>
+        <v>265</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>871</v>
+        <v>266</v>
       </c>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>875</v>
+        <v>267</v>
       </c>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>110</v>
+        <v>876</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="D243" s="6" t="s">
         <v>881</v>
       </c>
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="C244" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="D244" s="6" t="s">
         <v>884</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>885</v>
       </c>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>112</v>
+        <v>885</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>886</v>
       </c>
       <c r="C245" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D245" s="7" t="s">
         <v>887</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>888</v>
       </c>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="D246" s="6" t="s">
         <v>890</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>892</v>
       </c>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="D247" s="7" t="s">
         <v>894</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>896</v>
       </c>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="D248" s="7" t="s">
         <v>898</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>900</v>
       </c>
       <c r="E248" s="4"/>
     </row>
